--- a/Entradas y Salidas.xlsx
+++ b/Entradas y Salidas.xlsx
@@ -337,7 +337,7 @@
       <c r="A3" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/29- 2022/07/14</t>
+            <t xml:space="preserve">2022/07/14- 2022/07/29</t>
           </r>
         </is>
       </c>
@@ -361,7 +361,7 @@
         </is>
       </c>
       <c r="O3" s="5">
-        <v>44756.994139861315</v>
+        <v>44772.008514896035</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="5">
@@ -490,19 +490,19 @@
     </row>
     <row r="6" customHeight="0" bestFit="1" ht="20">
       <c r="A6" s="8" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
-          </r>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">11</t>
+          </r>
+        </is>
+      </c>
+      <c r="C6" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">IVAN OSVALDO LIRA ROJAS</t>
           </r>
         </is>
       </c>
@@ -523,7 +523,7 @@
       <c r="F6" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/14</t>
+            <t xml:space="preserve">2022/07/29</t>
           </r>
         </is>
       </c>
@@ -551,7 +551,7 @@
       <c r="J6" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:05 AM</t>
+            <t xml:space="preserve">07:28 AM</t>
           </r>
         </is>
       </c>
@@ -569,19 +569,19 @@
     </row>
     <row r="7" customHeight="0" bestFit="1" ht="20">
       <c r="A7" s="8" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c r="C7" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
           </r>
         </is>
       </c>
@@ -602,7 +602,7 @@
       <c r="F7" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/14</t>
+            <t xml:space="preserve">2022/07/29</t>
           </r>
         </is>
       </c>
@@ -630,7 +630,7 @@
       <c r="J7" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:06 AM</t>
+            <t xml:space="preserve">07:01 AM</t>
           </r>
         </is>
       </c>
@@ -648,19 +648,19 @@
     </row>
     <row r="8" customHeight="0" bestFit="1" ht="20">
       <c r="A8" s="8" t="n">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
+            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
           </r>
         </is>
       </c>
@@ -681,7 +681,7 @@
       <c r="F8" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/14</t>
+            <t xml:space="preserve">2022/07/29</t>
           </r>
         </is>
       </c>
@@ -709,7 +709,7 @@
       <c r="J8" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:11 AM</t>
+            <t xml:space="preserve">08:00 AM</t>
           </r>
         </is>
       </c>
@@ -727,19 +727,19 @@
     </row>
     <row r="9" customHeight="0" bestFit="1" ht="20">
       <c r="A9" s="8" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
-          </r>
-        </is>
-      </c>
-      <c r="C9" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
           </r>
         </is>
       </c>
@@ -760,7 +760,7 @@
       <c r="F9" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/14</t>
+            <t xml:space="preserve">2022/07/29</t>
           </r>
         </is>
       </c>
@@ -788,7 +788,7 @@
       <c r="J9" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:04 AM</t>
+            <t xml:space="preserve">07:05 AM</t>
           </r>
         </is>
       </c>
@@ -806,19 +806,19 @@
     </row>
     <row r="10" customHeight="0" bestFit="1" ht="20">
       <c r="A10" s="8" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
-          </r>
-        </is>
-      </c>
-      <c r="C10" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">9</t>
+          </r>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CATALINA ESCALANTE</t>
           </r>
         </is>
       </c>
@@ -839,7 +839,7 @@
       <c r="F10" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/14</t>
+            <t xml:space="preserve">2022/07/29</t>
           </r>
         </is>
       </c>
@@ -867,7 +867,7 @@
       <c r="J10" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:20 AM</t>
+            <t xml:space="preserve">09:03 AM</t>
           </r>
         </is>
       </c>
@@ -885,19 +885,19 @@
     </row>
     <row r="11" customHeight="0" bestFit="1" ht="20">
       <c r="A11" s="8" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
-          </r>
-        </is>
-      </c>
-      <c r="C11" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
           </r>
         </is>
       </c>
@@ -918,7 +918,7 @@
       <c r="F11" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/14</t>
+            <t xml:space="preserve">2022/07/29</t>
           </r>
         </is>
       </c>
@@ -946,7 +946,7 @@
       <c r="J11" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:39 AM</t>
+            <t xml:space="preserve">07:00 AM</t>
           </r>
         </is>
       </c>
@@ -997,7 +997,7 @@
       <c r="F12" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/14</t>
+            <t xml:space="preserve">2022/07/29</t>
           </r>
         </is>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="J12" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:52 AM</t>
+            <t xml:space="preserve">10:08 AM</t>
           </r>
         </is>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="F13" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/14</t>
+            <t xml:space="preserve">2022/07/29</t>
           </r>
         </is>
       </c>
@@ -1104,7 +1104,7 @@
       <c r="J13" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:04 AM</t>
+            <t xml:space="preserve">10:02 AM</t>
           </r>
         </is>
       </c>
@@ -1122,19 +1122,19 @@
     </row>
     <row r="14" customHeight="0" bestFit="1" ht="20">
       <c r="A14" s="8" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
-          </r>
-        </is>
-      </c>
-      <c r="C14" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="F14" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/14</t>
+            <t xml:space="preserve">2022/07/29</t>
           </r>
         </is>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="J14" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:59 AM</t>
+            <t xml:space="preserve">06:43 AM</t>
           </r>
         </is>
       </c>
@@ -1201,19 +1201,19 @@
     </row>
     <row r="15" customHeight="0" bestFit="1" ht="20">
       <c r="A15" s="8" t="n">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="B15" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">19</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">EVELYN ISABEL  LEMONT HUERTA</t>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -1234,32 +1234,38 @@
       <c r="F15" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/13</t>
+            <t xml:space="preserve">2022/07/29</t>
           </r>
         </is>
       </c>
       <c r="G15" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">VESPERTINO</t>
+            <t xml:space="preserve">Turno de trabajo default</t>
           </r>
         </is>
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:00 AM</t>
+            <t xml:space="preserve">1:00 AM</t>
           </r>
         </is>
       </c>
       <c r="I15" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:00 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="J15" s="8" t="inlineStr"/>
+            <t xml:space="preserve">11:00 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">07:30 AM</t>
+          </r>
+        </is>
+      </c>
       <c r="K15" s="8" t="inlineStr"/>
       <c r="L15" s="8" t="inlineStr"/>
       <c r="M15" s="8" t="inlineStr"/>
@@ -1267,26 +1273,26 @@
       <c r="O15" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">No hay registros</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="16" customHeight="0" bestFit="1" ht="20">
       <c r="A16" s="8" t="n">
-        <v>9.0</v>
+        <v>16.0</v>
       </c>
       <c r="B16" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">16</t>
+          </r>
+        </is>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -1307,77 +1313,65 @@
       <c r="F16" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/13</t>
+            <t xml:space="preserve">2022/07/29</t>
           </r>
         </is>
       </c>
       <c r="G16" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MATUTINO 9 AM</t>
+            <t xml:space="preserve">Turno de trabajo default</t>
           </r>
         </is>
       </c>
       <c r="H16" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9:00 AM</t>
+            <t xml:space="preserve">1:00 AM</t>
           </r>
         </is>
       </c>
       <c r="I16" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5:00 PM</t>
+            <t xml:space="preserve">11:00 PM</t>
           </r>
         </is>
       </c>
       <c r="J16" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:02 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K16" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">3:06 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L16" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">6:03:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">10:02 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K16" s="8" t="inlineStr"/>
+      <c r="L16" s="8" t="inlineStr"/>
       <c r="M16" s="8" t="inlineStr"/>
       <c r="N16" s="8" t="inlineStr"/>
       <c r="O16" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="17" customHeight="0" bestFit="1" ht="20">
       <c r="A17" s="8" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
-          </r>
-        </is>
-      </c>
-      <c r="C17" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">11</t>
+          </r>
+        </is>
+      </c>
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">IVAN OSVALDO LIRA ROJAS</t>
           </r>
         </is>
       </c>
@@ -1398,77 +1392,65 @@
       <c r="F17" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/13</t>
+            <t xml:space="preserve">2022/07/28</t>
           </r>
         </is>
       </c>
       <c r="G17" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MATUTINO 9 AM</t>
+            <t xml:space="preserve">Turno de trabajo default</t>
           </r>
         </is>
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9:00 AM</t>
+            <t xml:space="preserve">1:00 AM</t>
           </r>
         </is>
       </c>
       <c r="I17" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5:00 PM</t>
+            <t xml:space="preserve">11:00 PM</t>
           </r>
         </is>
       </c>
       <c r="J17" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:07 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K17" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">4:36 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L17" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">8:28:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">3:11 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K17" s="8" t="inlineStr"/>
+      <c r="L17" s="8" t="inlineStr"/>
       <c r="M17" s="8" t="inlineStr"/>
       <c r="N17" s="8" t="inlineStr"/>
       <c r="O17" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="18" customHeight="0" bestFit="1" ht="20">
       <c r="A18" s="8" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">7</t>
           </r>
         </is>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
           </r>
         </is>
       </c>
@@ -1489,7 +1471,7 @@
       <c r="F18" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/13</t>
+            <t xml:space="preserve">2022/07/28</t>
           </r>
         </is>
       </c>
@@ -1517,21 +1499,21 @@
       <c r="J18" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:06 AM</t>
+            <t xml:space="preserve">07:01 AM</t>
           </r>
         </is>
       </c>
       <c r="K18" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:10 PM</t>
+            <t xml:space="preserve">4:08 PM</t>
           </r>
         </is>
       </c>
       <c r="L18" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:03:00</t>
+            <t xml:space="preserve">9:07:00</t>
           </r>
         </is>
       </c>
@@ -1547,19 +1529,19 @@
     </row>
     <row r="19" customHeight="0" bestFit="1" ht="20">
       <c r="A19" s="8" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="B19" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
-          </r>
-        </is>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
           </r>
         </is>
       </c>
@@ -1580,7 +1562,7 @@
       <c r="F19" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/13</t>
+            <t xml:space="preserve">2022/07/28</t>
           </r>
         </is>
       </c>
@@ -1608,43 +1590,49 @@
       <c r="J19" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:07 AM</t>
+            <t xml:space="preserve">08:10 AM</t>
           </r>
         </is>
       </c>
       <c r="K19" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:30 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L19" s="8" t="inlineStr"/>
+            <t xml:space="preserve">4:45 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L19" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:35:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M19" s="8" t="inlineStr"/>
       <c r="N19" s="8" t="inlineStr"/>
       <c r="O19" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="20" customHeight="0" bestFit="1" ht="20">
       <c r="A20" s="8" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
-          </r>
-        </is>
-      </c>
-      <c r="C20" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
           </r>
         </is>
       </c>
@@ -1665,46 +1653,58 @@
       <c r="F20" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/13</t>
+            <t xml:space="preserve">2022/07/28</t>
           </r>
         </is>
       </c>
       <c r="G20" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MATUTINO</t>
+            <t xml:space="preserve">Turno de trabajo default</t>
           </r>
         </is>
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:00 AM</t>
+            <t xml:space="preserve">1:00 AM</t>
           </r>
         </is>
       </c>
       <c r="I20" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:00 PM</t>
+            <t xml:space="preserve">11:00 PM</t>
           </r>
         </is>
       </c>
       <c r="J20" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:43 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr"/>
-      <c r="L20" s="8" t="inlineStr"/>
+            <t xml:space="preserve">07:02 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3:11 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L20" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:09:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M20" s="8" t="inlineStr"/>
       <c r="N20" s="8" t="inlineStr"/>
       <c r="O20" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
@@ -1744,65 +1744,77 @@
       <c r="F21" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/13</t>
+            <t xml:space="preserve">2022/07/28</t>
           </r>
         </is>
       </c>
       <c r="G21" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MATUTINO</t>
+            <t xml:space="preserve">Turno de trabajo default</t>
           </r>
         </is>
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:00 AM</t>
+            <t xml:space="preserve">1:00 AM</t>
           </r>
         </is>
       </c>
       <c r="I21" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:00 PM</t>
+            <t xml:space="preserve">11:00 PM</t>
           </r>
         </is>
       </c>
       <c r="J21" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:03 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K21" s="8" t="inlineStr"/>
-      <c r="L21" s="8" t="inlineStr"/>
+            <t xml:space="preserve">10:49 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K21" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">6:07 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L21" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">7:17:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M21" s="8" t="inlineStr"/>
       <c r="N21" s="8" t="inlineStr"/>
       <c r="O21" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="22" customHeight="0" bestFit="1" ht="20">
       <c r="A22" s="8" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
-          </r>
-        </is>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">9</t>
+          </r>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CATALINA ESCALANTE</t>
           </r>
         </is>
       </c>
@@ -1823,49 +1835,49 @@
       <c r="F22" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/13</t>
+            <t xml:space="preserve">2022/07/28</t>
           </r>
         </is>
       </c>
       <c r="G22" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MATUTINO 8 AM</t>
+            <t xml:space="preserve">Turno de trabajo default</t>
           </r>
         </is>
       </c>
       <c r="H22" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:00 AM</t>
+            <t xml:space="preserve">1:00 AM</t>
           </r>
         </is>
       </c>
       <c r="I22" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:00 PM</t>
+            <t xml:space="preserve">11:00 PM</t>
           </r>
         </is>
       </c>
       <c r="J22" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:22 AM</t>
+            <t xml:space="preserve">09:03 AM</t>
           </r>
         </is>
       </c>
       <c r="K22" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:40 PM</t>
+            <t xml:space="preserve">3:09 PM</t>
           </r>
         </is>
       </c>
       <c r="L22" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:18:00</t>
+            <t xml:space="preserve">6:05:00</t>
           </r>
         </is>
       </c>
@@ -1881,19 +1893,19 @@
     </row>
     <row r="23" customHeight="0" bestFit="1" ht="20">
       <c r="A23" s="8" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B23" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
+            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
           </r>
         </is>
       </c>
@@ -1914,7 +1926,7 @@
       <c r="F23" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/13</t>
+            <t xml:space="preserve">2022/07/28</t>
           </r>
         </is>
       </c>
@@ -1942,21 +1954,21 @@
       <c r="J23" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:06 AM</t>
+            <t xml:space="preserve">09:56 AM</t>
           </r>
         </is>
       </c>
       <c r="K23" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:10 PM</t>
+            <t xml:space="preserve">6:07 PM</t>
           </r>
         </is>
       </c>
       <c r="L23" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:03:00</t>
+            <t xml:space="preserve">8:11:00</t>
           </r>
         </is>
       </c>
@@ -1972,19 +1984,19 @@
     </row>
     <row r="24" customHeight="0" bestFit="1" ht="20">
       <c r="A24" s="8" t="n">
-        <v>18.0</v>
+        <v>17.0</v>
       </c>
       <c r="B24" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -2005,49 +2017,49 @@
       <c r="F24" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/13</t>
+            <t xml:space="preserve">2022/07/28</t>
           </r>
         </is>
       </c>
       <c r="G24" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">VESPERTINO</t>
+            <t xml:space="preserve">Turno de trabajo default</t>
           </r>
         </is>
       </c>
       <c r="H24" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:00 AM</t>
+            <t xml:space="preserve">1:00 AM</t>
           </r>
         </is>
       </c>
       <c r="I24" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:00 PM</t>
+            <t xml:space="preserve">11:00 PM</t>
           </r>
         </is>
       </c>
       <c r="J24" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:57 AM</t>
+            <t xml:space="preserve">09:54 AM</t>
           </r>
         </is>
       </c>
       <c r="K24" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:26 PM</t>
+            <t xml:space="preserve">6:02 PM</t>
           </r>
         </is>
       </c>
       <c r="L24" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:28:00</t>
+            <t xml:space="preserve">8:07:00</t>
           </r>
         </is>
       </c>
@@ -2063,19 +2075,19 @@
     </row>
     <row r="25" customHeight="0" bestFit="1" ht="20">
       <c r="A25" s="8" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="B25" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
-          </r>
-        </is>
-      </c>
-      <c r="C25" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -2096,49 +2108,49 @@
       <c r="F25" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/13</t>
+            <t xml:space="preserve">2022/07/28</t>
           </r>
         </is>
       </c>
       <c r="G25" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MATUTINO</t>
+            <t xml:space="preserve">Turno de trabajo default</t>
           </r>
         </is>
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:00 AM</t>
+            <t xml:space="preserve">1:00 AM</t>
           </r>
         </is>
       </c>
       <c r="I25" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:00 PM</t>
+            <t xml:space="preserve">11:00 PM</t>
           </r>
         </is>
       </c>
       <c r="J25" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:01 AM</t>
+            <t xml:space="preserve">06:40 AM</t>
           </r>
         </is>
       </c>
       <c r="K25" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:01 PM</t>
+            <t xml:space="preserve">3:07 PM</t>
           </r>
         </is>
       </c>
       <c r="L25" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:00:00</t>
+            <t xml:space="preserve">8:26:00</t>
           </r>
         </is>
       </c>
@@ -2154,19 +2166,19 @@
     </row>
     <row r="26" customHeight="0" bestFit="1" ht="20">
       <c r="A26" s="8" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="B26" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c r="C26" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -2187,7 +2199,7 @@
       <c r="F26" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/12</t>
+            <t xml:space="preserve">2022/07/28</t>
           </r>
         </is>
       </c>
@@ -2215,21 +2227,21 @@
       <c r="J26" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:02 AM</t>
+            <t xml:space="preserve">07:27 AM</t>
           </r>
         </is>
       </c>
       <c r="K26" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:05 PM</t>
+            <t xml:space="preserve">3:19 PM</t>
           </r>
         </is>
       </c>
       <c r="L26" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:02:00</t>
+            <t xml:space="preserve">7:51:00</t>
           </r>
         </is>
       </c>
@@ -2245,19 +2257,19 @@
     </row>
     <row r="27" customHeight="0" bestFit="1" ht="20">
       <c r="A27" s="8" t="n">
-        <v>13.0</v>
+        <v>16.0</v>
       </c>
       <c r="B27" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
-          </r>
-        </is>
-      </c>
-      <c r="C27" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">16</t>
+          </r>
+        </is>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -2278,7 +2290,7 @@
       <c r="F27" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/12</t>
+            <t xml:space="preserve">2022/07/28</t>
           </r>
         </is>
       </c>
@@ -2306,21 +2318,21 @@
       <c r="J27" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:15 AM</t>
+            <t xml:space="preserve">07:00 AM</t>
           </r>
         </is>
       </c>
       <c r="K27" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:25 PM</t>
+            <t xml:space="preserve">3:13 PM</t>
           </r>
         </is>
       </c>
       <c r="L27" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:09:00</t>
+            <t xml:space="preserve">8:13:00</t>
           </r>
         </is>
       </c>
@@ -2336,19 +2348,19 @@
     </row>
     <row r="28" customHeight="0" bestFit="1" ht="20">
       <c r="A28" s="8" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
-          </r>
-        </is>
-      </c>
-      <c r="C28" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
           </r>
         </is>
       </c>
@@ -2369,7 +2381,7 @@
       <c r="F28" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/12</t>
+            <t xml:space="preserve">2022/07/27</t>
           </r>
         </is>
       </c>
@@ -2397,37 +2409,49 @@
       <c r="J28" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:41 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K28" s="8" t="inlineStr"/>
-      <c r="L28" s="8" t="inlineStr"/>
+            <t xml:space="preserve">07:11 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K28" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">5:05 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L28" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">9:54:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M28" s="8" t="inlineStr"/>
       <c r="N28" s="8" t="inlineStr"/>
       <c r="O28" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="29" customHeight="0" bestFit="1" ht="20">
       <c r="A29" s="8" t="n">
-        <v>5.0</v>
+        <v>20.0</v>
       </c>
       <c r="B29" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5</t>
-          </r>
-        </is>
-      </c>
-      <c r="C29" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="C29" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
           </r>
         </is>
       </c>
@@ -2448,7 +2472,7 @@
       <c r="F29" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/12</t>
+            <t xml:space="preserve">2022/07/27</t>
           </r>
         </is>
       </c>
@@ -2476,21 +2500,21 @@
       <c r="J29" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:14 AM</t>
+            <t xml:space="preserve">07:02 AM</t>
           </r>
         </is>
       </c>
       <c r="K29" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:11 PM</t>
+            <t xml:space="preserve">3:02 PM</t>
           </r>
         </is>
       </c>
       <c r="L29" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:56:00</t>
+            <t xml:space="preserve">8:00:00</t>
           </r>
         </is>
       </c>
@@ -2506,19 +2530,19 @@
     </row>
     <row r="30" customHeight="0" bestFit="1" ht="20">
       <c r="A30" s="8" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="B30" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
-          </r>
-        </is>
-      </c>
-      <c r="C30" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="C30" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
           </r>
         </is>
       </c>
@@ -2539,7 +2563,7 @@
       <c r="F30" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/12</t>
+            <t xml:space="preserve">2022/07/27</t>
           </r>
         </is>
       </c>
@@ -2567,24 +2591,30 @@
       <c r="J30" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:11 AM</t>
+            <t xml:space="preserve">08:08 AM</t>
           </r>
         </is>
       </c>
       <c r="K30" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:00 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L30" s="8" t="inlineStr"/>
+            <t xml:space="preserve">4:09 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L30" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:01:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M30" s="8" t="inlineStr"/>
       <c r="N30" s="8" t="inlineStr"/>
       <c r="O30" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
@@ -2624,7 +2654,7 @@
       <c r="F31" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/12</t>
+            <t xml:space="preserve">2022/07/27</t>
           </r>
         </is>
       </c>
@@ -2652,49 +2682,37 @@
       <c r="J31" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:10 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K31" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">4:56 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L31" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">9:46:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">3:29 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K31" s="8" t="inlineStr"/>
+      <c r="L31" s="8" t="inlineStr"/>
       <c r="M31" s="8" t="inlineStr"/>
       <c r="N31" s="8" t="inlineStr"/>
       <c r="O31" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="32" customHeight="0" bestFit="1" ht="20">
       <c r="A32" s="8" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="B32" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
           </r>
         </is>
       </c>
@@ -2715,7 +2733,7 @@
       <c r="F32" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/12</t>
+            <t xml:space="preserve">2022/07/27</t>
           </r>
         </is>
       </c>
@@ -2743,37 +2761,49 @@
       <c r="J32" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:33 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K32" s="8" t="inlineStr"/>
-      <c r="L32" s="8" t="inlineStr"/>
+            <t xml:space="preserve">09:57 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K32" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">6:30 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L32" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:33:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M32" s="8" t="inlineStr"/>
       <c r="N32" s="8" t="inlineStr"/>
       <c r="O32" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="33" customHeight="0" bestFit="1" ht="20">
       <c r="A33" s="8" t="n">
-        <v>17.0</v>
+        <v>9.0</v>
       </c>
       <c r="B33" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17</t>
-          </r>
-        </is>
-      </c>
-      <c r="C33" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
+            <t xml:space="preserve">9</t>
+          </r>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CATALINA ESCALANTE</t>
           </r>
         </is>
       </c>
@@ -2794,7 +2824,7 @@
       <c r="F33" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/12</t>
+            <t xml:space="preserve">2022/07/27</t>
           </r>
         </is>
       </c>
@@ -2822,21 +2852,21 @@
       <c r="J33" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:06 AM</t>
+            <t xml:space="preserve">09:04 AM</t>
           </r>
         </is>
       </c>
       <c r="K33" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:33 PM</t>
+            <t xml:space="preserve">3:02 PM</t>
           </r>
         </is>
       </c>
       <c r="L33" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:26:00</t>
+            <t xml:space="preserve">5:58:00</t>
           </r>
         </is>
       </c>
@@ -2852,19 +2882,19 @@
     </row>
     <row r="34" customHeight="0" bestFit="1" ht="20">
       <c r="A34" s="8" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="B34" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18</t>
-          </r>
-        </is>
-      </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
           </r>
         </is>
       </c>
@@ -2885,7 +2915,7 @@
       <c r="F34" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/12</t>
+            <t xml:space="preserve">2022/07/27</t>
           </r>
         </is>
       </c>
@@ -2913,21 +2943,21 @@
       <c r="J34" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:54 AM</t>
+            <t xml:space="preserve">07:06 AM</t>
           </r>
         </is>
       </c>
       <c r="K34" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:34 PM</t>
+            <t xml:space="preserve">3:01 PM</t>
           </r>
         </is>
       </c>
       <c r="L34" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:39:00</t>
+            <t xml:space="preserve">7:55:00</t>
           </r>
         </is>
       </c>
@@ -2943,19 +2973,19 @@
     </row>
     <row r="35" customHeight="0" bestFit="1" ht="20">
       <c r="A35" s="8" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="B35" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c r="C35" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">17</t>
+          </r>
+        </is>
+      </c>
+      <c r="C35" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -2976,7 +3006,7 @@
       <c r="F35" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/11</t>
+            <t xml:space="preserve">2022/07/27</t>
           </r>
         </is>
       </c>
@@ -3004,21 +3034,21 @@
       <c r="J35" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:08 AM</t>
+            <t xml:space="preserve">10:06 AM</t>
           </r>
         </is>
       </c>
       <c r="K35" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:06 PM</t>
+            <t xml:space="preserve">6:19 PM</t>
           </r>
         </is>
       </c>
       <c r="L35" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5:58:00</t>
+            <t xml:space="preserve">8:13:00</t>
           </r>
         </is>
       </c>
@@ -3034,19 +3064,19 @@
     </row>
     <row r="36" customHeight="0" bestFit="1" ht="20">
       <c r="A36" s="8" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">12</t>
           </r>
         </is>
       </c>
       <c r="C36" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -3067,7 +3097,7 @@
       <c r="F36" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/11</t>
+            <t xml:space="preserve">2022/07/27</t>
           </r>
         </is>
       </c>
@@ -3095,49 +3125,37 @@
       <c r="J36" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:03 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K36" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">4:39 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L36" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">8:35:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">06:40 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K36" s="8" t="inlineStr"/>
+      <c r="L36" s="8" t="inlineStr"/>
       <c r="M36" s="8" t="inlineStr"/>
       <c r="N36" s="8" t="inlineStr"/>
       <c r="O36" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="37" customHeight="0" bestFit="1" ht="20">
       <c r="A37" s="8" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="B37" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
-          </r>
-        </is>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -3158,7 +3176,7 @@
       <c r="F37" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/11</t>
+            <t xml:space="preserve">2022/07/27</t>
           </r>
         </is>
       </c>
@@ -3186,21 +3204,21 @@
       <c r="J37" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:37 AM</t>
+            <t xml:space="preserve">07:30 AM</t>
           </r>
         </is>
       </c>
       <c r="K37" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:21 PM</t>
+            <t xml:space="preserve">3:42 PM</t>
           </r>
         </is>
       </c>
       <c r="L37" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:43:00</t>
+            <t xml:space="preserve">8:11:00</t>
           </r>
         </is>
       </c>
@@ -3216,19 +3234,19 @@
     </row>
     <row r="38" customHeight="0" bestFit="1" ht="20">
       <c r="A38" s="8" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="B38" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5</t>
-          </r>
-        </is>
-      </c>
-      <c r="C38" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
+            <t xml:space="preserve">16</t>
+          </r>
+        </is>
+      </c>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -3249,7 +3267,7 @@
       <c r="F38" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/11</t>
+            <t xml:space="preserve">2022/07/27</t>
           </r>
         </is>
       </c>
@@ -3277,21 +3295,21 @@
       <c r="J38" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:06 AM</t>
+            <t xml:space="preserve">10:06 AM</t>
           </r>
         </is>
       </c>
       <c r="K38" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:08 PM</t>
+            <t xml:space="preserve">6:19 PM</t>
           </r>
         </is>
       </c>
       <c r="L38" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:01:00</t>
+            <t xml:space="preserve">8:13:00</t>
           </r>
         </is>
       </c>
@@ -3307,19 +3325,19 @@
     </row>
     <row r="39" customHeight="0" bestFit="1" ht="20">
       <c r="A39" s="8" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="B39" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">7</t>
           </r>
         </is>
       </c>
       <c r="C39" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
           </r>
         </is>
       </c>
@@ -3340,7 +3358,7 @@
       <c r="F39" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/11</t>
+            <t xml:space="preserve">2022/07/26</t>
           </r>
         </is>
       </c>
@@ -3368,21 +3386,21 @@
       <c r="J39" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:18 AM</t>
+            <t xml:space="preserve">07:12 AM</t>
           </r>
         </is>
       </c>
       <c r="K39" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:59 PM</t>
+            <t xml:space="preserve">5:05 PM</t>
           </r>
         </is>
       </c>
       <c r="L39" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:41:00</t>
+            <t xml:space="preserve">9:52:00</t>
           </r>
         </is>
       </c>
@@ -3398,19 +3416,19 @@
     </row>
     <row r="40" customHeight="0" bestFit="1" ht="20">
       <c r="A40" s="8" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="B40" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
       <c r="C40" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
           </r>
         </is>
       </c>
@@ -3431,7 +3449,7 @@
       <c r="F40" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/11</t>
+            <t xml:space="preserve">2022/07/26</t>
           </r>
         </is>
       </c>
@@ -3459,21 +3477,21 @@
       <c r="J40" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:21 AM</t>
+            <t xml:space="preserve">10:08 AM</t>
           </r>
         </is>
       </c>
       <c r="K40" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:03 PM</t>
+            <t xml:space="preserve">6:38 PM</t>
           </r>
         </is>
       </c>
       <c r="L40" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:41:00</t>
+            <t xml:space="preserve">8:30:00</t>
           </r>
         </is>
       </c>
@@ -3489,19 +3507,19 @@
     </row>
     <row r="41" customHeight="0" bestFit="1" ht="20">
       <c r="A41" s="8" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="B41" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
-          </r>
-        </is>
-      </c>
-      <c r="C41" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">9</t>
+          </r>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CATALINA ESCALANTE</t>
           </r>
         </is>
       </c>
@@ -3522,7 +3540,7 @@
       <c r="F41" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/11</t>
+            <t xml:space="preserve">2022/07/26</t>
           </r>
         </is>
       </c>
@@ -3550,21 +3568,21 @@
       <c r="J41" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:10 AM</t>
+            <t xml:space="preserve">09:10 AM</t>
           </r>
         </is>
       </c>
       <c r="K41" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:18 PM</t>
+            <t xml:space="preserve">3:12 PM</t>
           </r>
         </is>
       </c>
       <c r="L41" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:07:00</t>
+            <t xml:space="preserve">6:01:00</t>
           </r>
         </is>
       </c>
@@ -3580,19 +3598,19 @@
     </row>
     <row r="42" customHeight="0" bestFit="1" ht="20">
       <c r="A42" s="8" t="n">
-        <v>17.0</v>
+        <v>8.0</v>
       </c>
       <c r="B42" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
       <c r="C42" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
+            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
           </r>
         </is>
       </c>
@@ -3613,7 +3631,7 @@
       <c r="F42" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/11</t>
+            <t xml:space="preserve">2022/07/26</t>
           </r>
         </is>
       </c>
@@ -3641,49 +3659,37 @@
       <c r="J42" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:10 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K42" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">6:19 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L42" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">8:09:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">07:02 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K42" s="8" t="inlineStr"/>
+      <c r="L42" s="8" t="inlineStr"/>
       <c r="M42" s="8" t="inlineStr"/>
       <c r="N42" s="8" t="inlineStr"/>
       <c r="O42" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="43" customHeight="0" bestFit="1" ht="20">
       <c r="A43" s="8" t="n">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="B43" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
-          </r>
-        </is>
-      </c>
-      <c r="C43" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="C43" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
           </r>
         </is>
       </c>
@@ -3704,7 +3710,7 @@
       <c r="F43" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/11</t>
+            <t xml:space="preserve">2022/07/26</t>
           </r>
         </is>
       </c>
@@ -3732,21 +3738,21 @@
       <c r="J43" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:00 AM</t>
+            <t xml:space="preserve">08:12 AM</t>
           </r>
         </is>
       </c>
       <c r="K43" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:12 PM</t>
+            <t xml:space="preserve">4:10 PM</t>
           </r>
         </is>
       </c>
       <c r="L43" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:11:00</t>
+            <t xml:space="preserve">7:58:00</t>
           </r>
         </is>
       </c>
@@ -3762,19 +3768,19 @@
     </row>
     <row r="44" customHeight="0" bestFit="1" ht="20">
       <c r="A44" s="8" t="n">
-        <v>18.0</v>
+        <v>5.0</v>
       </c>
       <c r="B44" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18</t>
-          </r>
-        </is>
-      </c>
-      <c r="C44" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="C44" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
           </r>
         </is>
       </c>
@@ -3795,7 +3801,7 @@
       <c r="F44" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/11</t>
+            <t xml:space="preserve">2022/07/26</t>
           </r>
         </is>
       </c>
@@ -3823,49 +3829,37 @@
       <c r="J44" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:50 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K44" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">6:36 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L44" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">8:46:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">07:04 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K44" s="8" t="inlineStr"/>
+      <c r="L44" s="8" t="inlineStr"/>
       <c r="M44" s="8" t="inlineStr"/>
       <c r="N44" s="8" t="inlineStr"/>
       <c r="O44" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="45" customHeight="0" bestFit="1" ht="20">
       <c r="A45" s="8" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="B45" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c r="C45" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">17</t>
+          </r>
+        </is>
+      </c>
+      <c r="C45" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -3886,7 +3880,7 @@
       <c r="F45" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/09</t>
+            <t xml:space="preserve">2022/07/26</t>
           </r>
         </is>
       </c>
@@ -3914,21 +3908,21 @@
       <c r="J45" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:05 AM</t>
+            <t xml:space="preserve">10:04 AM</t>
           </r>
         </is>
       </c>
       <c r="K45" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:00 PM</t>
+            <t xml:space="preserve">6:20 PM</t>
           </r>
         </is>
       </c>
       <c r="L45" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5:55:00</t>
+            <t xml:space="preserve">8:16:00</t>
           </r>
         </is>
       </c>
@@ -3944,19 +3938,19 @@
     </row>
     <row r="46" customHeight="0" bestFit="1" ht="20">
       <c r="A46" s="8" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
       <c r="B46" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">12</t>
           </r>
         </is>
       </c>
       <c r="C46" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -3977,7 +3971,7 @@
       <c r="F46" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/09</t>
+            <t xml:space="preserve">2022/07/26</t>
           </r>
         </is>
       </c>
@@ -4005,21 +3999,21 @@
       <c r="J46" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:53 AM</t>
+            <t xml:space="preserve">06:38 AM</t>
           </r>
         </is>
       </c>
       <c r="K46" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:10 PM</t>
+            <t xml:space="preserve">3:05 PM</t>
           </r>
         </is>
       </c>
       <c r="L46" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:16:00</t>
+            <t xml:space="preserve">8:26:00</t>
           </r>
         </is>
       </c>
@@ -4035,19 +4029,19 @@
     </row>
     <row r="47" customHeight="0" bestFit="1" ht="20">
       <c r="A47" s="8" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="B47" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
-          </r>
-        </is>
-      </c>
-      <c r="C47" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -4068,7 +4062,7 @@
       <c r="F47" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/09</t>
+            <t xml:space="preserve">2022/07/26</t>
           </r>
         </is>
       </c>
@@ -4096,37 +4090,49 @@
       <c r="J47" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:36 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K47" s="8" t="inlineStr"/>
-      <c r="L47" s="8" t="inlineStr"/>
+            <t xml:space="preserve">07:32 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K47" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3:59 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L47" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:26:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M47" s="8" t="inlineStr"/>
       <c r="N47" s="8" t="inlineStr"/>
       <c r="O47" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="48" customHeight="0" bestFit="1" ht="20">
       <c r="A48" s="8" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="B48" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">16</t>
           </r>
         </is>
       </c>
       <c r="C48" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -4147,7 +4153,7 @@
       <c r="F48" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/09</t>
+            <t xml:space="preserve">2022/07/26</t>
           </r>
         </is>
       </c>
@@ -4175,21 +4181,21 @@
       <c r="J48" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:12 AM</t>
+            <t xml:space="preserve">10:04 AM</t>
           </r>
         </is>
       </c>
       <c r="K48" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:12 PM</t>
+            <t xml:space="preserve">6:16 PM</t>
           </r>
         </is>
       </c>
       <c r="L48" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:00:00</t>
+            <t xml:space="preserve">8:11:00</t>
           </r>
         </is>
       </c>
@@ -4205,19 +4211,19 @@
     </row>
     <row r="49" customHeight="0" bestFit="1" ht="20">
       <c r="A49" s="8" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="B49" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5</t>
-          </r>
-        </is>
-      </c>
-      <c r="C49" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c r="C49" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
           </r>
         </is>
       </c>
@@ -4238,7 +4244,7 @@
       <c r="F49" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/09</t>
+            <t xml:space="preserve">2022/07/25</t>
           </r>
         </is>
       </c>
@@ -4266,21 +4272,21 @@
       <c r="J49" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:13 AM</t>
+            <t xml:space="preserve">07:11 AM</t>
           </r>
         </is>
       </c>
       <c r="K49" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12:51 PM</t>
+            <t xml:space="preserve">5:07 PM</t>
           </r>
         </is>
       </c>
       <c r="L49" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5:38:00</t>
+            <t xml:space="preserve">9:56:00</t>
           </r>
         </is>
       </c>
@@ -4296,19 +4302,19 @@
     </row>
     <row r="50" customHeight="0" bestFit="1" ht="20">
       <c r="A50" s="8" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B50" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
-          </r>
-        </is>
-      </c>
-      <c r="C50" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+            <t xml:space="preserve">9</t>
+          </r>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CATALINA ESCALANTE</t>
           </r>
         </is>
       </c>
@@ -4329,7 +4335,7 @@
       <c r="F50" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/09</t>
+            <t xml:space="preserve">2022/07/25</t>
           </r>
         </is>
       </c>
@@ -4357,7 +4363,7 @@
       <c r="J50" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:44 AM</t>
+            <t xml:space="preserve">09:06 AM</t>
           </r>
         </is>
       </c>
@@ -4371,7 +4377,7 @@
       <c r="L50" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:18:00</t>
+            <t xml:space="preserve">5:57:00</t>
           </r>
         </is>
       </c>
@@ -4387,19 +4393,19 @@
     </row>
     <row r="51" customHeight="0" bestFit="1" ht="20">
       <c r="A51" s="8" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="B51" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
       <c r="C51" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
           </r>
         </is>
       </c>
@@ -4420,7 +4426,7 @@
       <c r="F51" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/09</t>
+            <t xml:space="preserve">2022/07/25</t>
           </r>
         </is>
       </c>
@@ -4448,21 +4454,21 @@
       <c r="J51" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:19 AM</t>
+            <t xml:space="preserve">07:16 AM</t>
           </r>
         </is>
       </c>
       <c r="K51" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:11 PM</t>
+            <t xml:space="preserve">3:28 PM</t>
           </r>
         </is>
       </c>
       <c r="L51" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:51:00</t>
+            <t xml:space="preserve">8:11:00</t>
           </r>
         </is>
       </c>
@@ -4478,19 +4484,19 @@
     </row>
     <row r="52" customHeight="0" bestFit="1" ht="20">
       <c r="A52" s="8" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B52" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
       <c r="C52" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
+            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
           </r>
         </is>
       </c>
@@ -4511,7 +4517,7 @@
       <c r="F52" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/09</t>
+            <t xml:space="preserve">2022/07/25</t>
           </r>
         </is>
       </c>
@@ -4539,21 +4545,21 @@
       <c r="J52" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:19 AM</t>
+            <t xml:space="preserve">09:55 AM</t>
           </r>
         </is>
       </c>
       <c r="K52" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:10 PM</t>
+            <t xml:space="preserve">6:34 PM</t>
           </r>
         </is>
       </c>
       <c r="L52" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:50:00</t>
+            <t xml:space="preserve">8:39:00</t>
           </r>
         </is>
       </c>
@@ -4569,19 +4575,19 @@
     </row>
     <row r="53" customHeight="0" bestFit="1" ht="20">
       <c r="A53" s="8" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="B53" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18</t>
-          </r>
-        </is>
-      </c>
-      <c r="C53" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="C53" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
           </r>
         </is>
       </c>
@@ -4602,7 +4608,7 @@
       <c r="F53" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/09</t>
+            <t xml:space="preserve">2022/07/25</t>
           </r>
         </is>
       </c>
@@ -4630,21 +4636,21 @@
       <c r="J53" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:12 AM</t>
+            <t xml:space="preserve">07:04 AM</t>
           </r>
         </is>
       </c>
       <c r="K53" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:31 PM</t>
+            <t xml:space="preserve">3:16 PM</t>
           </r>
         </is>
       </c>
       <c r="L53" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:18:00</t>
+            <t xml:space="preserve">8:11:00</t>
           </r>
         </is>
       </c>
@@ -4660,19 +4666,19 @@
     </row>
     <row r="54" customHeight="0" bestFit="1" ht="20">
       <c r="A54" s="8" t="n">
-        <v>20.0</v>
+        <v>13.0</v>
       </c>
       <c r="B54" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
-          </r>
-        </is>
-      </c>
-      <c r="C54" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="C54" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
           </r>
         </is>
       </c>
@@ -4693,7 +4699,7 @@
       <c r="F54" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/09</t>
+            <t xml:space="preserve">2022/07/25</t>
           </r>
         </is>
       </c>
@@ -4721,21 +4727,21 @@
       <c r="J54" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:53 AM</t>
+            <t xml:space="preserve">08:05 AM</t>
           </r>
         </is>
       </c>
       <c r="K54" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:08 PM</t>
+            <t xml:space="preserve">4:35 PM</t>
           </r>
         </is>
       </c>
       <c r="L54" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:15:00</t>
+            <t xml:space="preserve">8:30:00</t>
           </r>
         </is>
       </c>
@@ -4751,19 +4757,19 @@
     </row>
     <row r="55" customHeight="0" bestFit="1" ht="20">
       <c r="A55" s="8" t="n">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="B55" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
       <c r="C55" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
           </r>
         </is>
       </c>
@@ -4784,7 +4790,7 @@
       <c r="F55" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/08</t>
+            <t xml:space="preserve">2022/07/25</t>
           </r>
         </is>
       </c>
@@ -4812,49 +4818,37 @@
       <c r="J55" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:02 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K55" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">3:12 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L55" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">6:10:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">07:08 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K55" s="8" t="inlineStr"/>
+      <c r="L55" s="8" t="inlineStr"/>
       <c r="M55" s="8" t="inlineStr"/>
       <c r="N55" s="8" t="inlineStr"/>
       <c r="O55" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="56" customHeight="0" bestFit="1" ht="20">
       <c r="A56" s="8" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="B56" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
-          </r>
-        </is>
-      </c>
-      <c r="C56" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">17</t>
+          </r>
+        </is>
+      </c>
+      <c r="C56" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -4875,7 +4869,7 @@
       <c r="F56" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/08</t>
+            <t xml:space="preserve">2022/07/25</t>
           </r>
         </is>
       </c>
@@ -4903,37 +4897,49 @@
       <c r="J56" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:34 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K56" s="8" t="inlineStr"/>
-      <c r="L56" s="8" t="inlineStr"/>
+            <t xml:space="preserve">10:17 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K56" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">6:05 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L56" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">7:47:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M56" s="8" t="inlineStr"/>
       <c r="N56" s="8" t="inlineStr"/>
       <c r="O56" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="57" customHeight="0" bestFit="1" ht="20">
       <c r="A57" s="8" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="B57" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
-          </r>
-        </is>
-      </c>
-      <c r="C57" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -4954,7 +4960,7 @@
       <c r="F57" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/08</t>
+            <t xml:space="preserve">2022/07/25</t>
           </r>
         </is>
       </c>
@@ -4982,43 +4988,49 @@
       <c r="J57" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:23 AM</t>
+            <t xml:space="preserve">06:46 AM</t>
           </r>
         </is>
       </c>
       <c r="K57" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:08 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L57" s="8" t="inlineStr"/>
+            <t xml:space="preserve">3:05 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L57" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:18:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M57" s="8" t="inlineStr"/>
       <c r="N57" s="8" t="inlineStr"/>
       <c r="O57" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="58" customHeight="0" bestFit="1" ht="20">
       <c r="A58" s="8" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B58" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
       <c r="C58" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -5039,7 +5051,7 @@
       <c r="F58" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/08</t>
+            <t xml:space="preserve">2022/07/25</t>
           </r>
         </is>
       </c>
@@ -5067,37 +5079,49 @@
       <c r="J58" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:12 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K58" s="8" t="inlineStr"/>
-      <c r="L58" s="8" t="inlineStr"/>
+            <t xml:space="preserve">07:24 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K58" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3:34 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L58" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:09:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M58" s="8" t="inlineStr"/>
       <c r="N58" s="8" t="inlineStr"/>
       <c r="O58" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="59" customHeight="0" bestFit="1" ht="20">
       <c r="A59" s="8" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B59" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">16</t>
           </r>
         </is>
       </c>
       <c r="C59" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -5118,7 +5142,7 @@
       <c r="F59" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/08</t>
+            <t xml:space="preserve">2022/07/25</t>
           </r>
         </is>
       </c>
@@ -5146,49 +5170,37 @@
       <c r="J59" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:21 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K59" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">6:22 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L59" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">8:01:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">6:05 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K59" s="8" t="inlineStr"/>
+      <c r="L59" s="8" t="inlineStr"/>
       <c r="M59" s="8" t="inlineStr"/>
       <c r="N59" s="8" t="inlineStr"/>
       <c r="O59" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="60" customHeight="0" bestFit="1" ht="20">
       <c r="A60" s="8" t="n">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="B60" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18</t>
+            <t xml:space="preserve">7</t>
           </r>
         </is>
       </c>
       <c r="C60" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
+            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
           </r>
         </is>
       </c>
@@ -5209,7 +5221,7 @@
       <c r="F60" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/08</t>
+            <t xml:space="preserve">2022/07/23</t>
           </r>
         </is>
       </c>
@@ -5237,21 +5249,21 @@
       <c r="J60" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:55 AM</t>
+            <t xml:space="preserve">07:08 AM</t>
           </r>
         </is>
       </c>
       <c r="K60" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:27 PM</t>
+            <t xml:space="preserve">3:06 PM</t>
           </r>
         </is>
       </c>
       <c r="L60" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:31:00</t>
+            <t xml:space="preserve">7:58:00</t>
           </r>
         </is>
       </c>
@@ -5267,19 +5279,19 @@
     </row>
     <row r="61" customHeight="0" bestFit="1" ht="20">
       <c r="A61" s="8" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="B61" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
-          </r>
-        </is>
-      </c>
-      <c r="C61" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+            <t xml:space="preserve">18</t>
+          </r>
+        </is>
+      </c>
+      <c r="C61" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
           </r>
         </is>
       </c>
@@ -5300,7 +5312,7 @@
       <c r="F61" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/08</t>
+            <t xml:space="preserve">2022/07/23</t>
           </r>
         </is>
       </c>
@@ -5328,49 +5340,37 @@
       <c r="J61" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:53 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K61" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">3:18 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L61" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">8:24:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">07:17 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K61" s="8" t="inlineStr"/>
+      <c r="L61" s="8" t="inlineStr"/>
       <c r="M61" s="8" t="inlineStr"/>
       <c r="N61" s="8" t="inlineStr"/>
       <c r="O61" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="62" customHeight="0" bestFit="1" ht="20">
       <c r="A62" s="8" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B62" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">9</t>
           </r>
         </is>
       </c>
       <c r="C62" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">CATALINA ESCALANTE</t>
           </r>
         </is>
       </c>
@@ -5391,7 +5391,7 @@
       <c r="F62" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/07</t>
+            <t xml:space="preserve">2022/07/23</t>
           </r>
         </is>
       </c>
@@ -5419,21 +5419,21 @@
       <c r="J62" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:15 AM</t>
+            <t xml:space="preserve">08:45 AM</t>
           </r>
         </is>
       </c>
       <c r="K62" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:32 PM</t>
+            <t xml:space="preserve">3:09 PM</t>
           </r>
         </is>
       </c>
       <c r="L62" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:16:00</t>
+            <t xml:space="preserve">6:24:00</t>
           </r>
         </is>
       </c>
@@ -5449,19 +5449,19 @@
     </row>
     <row r="63" customHeight="0" bestFit="1" ht="20">
       <c r="A63" s="8" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B63" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c r="C63" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">8</t>
+          </r>
+        </is>
+      </c>
+      <c r="C63" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
           </r>
         </is>
       </c>
@@ -5482,7 +5482,7 @@
       <c r="F63" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/07</t>
+            <t xml:space="preserve">2022/07/23</t>
           </r>
         </is>
       </c>
@@ -5510,49 +5510,37 @@
       <c r="J63" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:57 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K63" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">3:03 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L63" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">6:05:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">08:12 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K63" s="8" t="inlineStr"/>
+      <c r="L63" s="8" t="inlineStr"/>
       <c r="M63" s="8" t="inlineStr"/>
       <c r="N63" s="8" t="inlineStr"/>
       <c r="O63" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="64" customHeight="0" bestFit="1" ht="20">
       <c r="A64" s="8" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B64" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
       <c r="C64" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
           </r>
         </is>
       </c>
@@ -5573,7 +5561,7 @@
       <c r="F64" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/07</t>
+            <t xml:space="preserve">2022/07/23</t>
           </r>
         </is>
       </c>
@@ -5601,21 +5589,21 @@
       <c r="J64" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:37 AM</t>
+            <t xml:space="preserve">08:06 AM</t>
           </r>
         </is>
       </c>
       <c r="K64" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:01 PM</t>
+            <t xml:space="preserve">3:09 PM</t>
           </r>
         </is>
       </c>
       <c r="L64" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:24:00</t>
+            <t xml:space="preserve">7:02:00</t>
           </r>
         </is>
       </c>
@@ -5631,19 +5619,19 @@
     </row>
     <row r="65" customHeight="0" bestFit="1" ht="20">
       <c r="A65" s="8" t="n">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="B65" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
-          </r>
-        </is>
-      </c>
-      <c r="C65" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="C65" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
           </r>
         </is>
       </c>
@@ -5664,7 +5652,7 @@
       <c r="F65" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/07</t>
+            <t xml:space="preserve">2022/07/23</t>
           </r>
         </is>
       </c>
@@ -5692,21 +5680,21 @@
       <c r="J65" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:30 AM</t>
+            <t xml:space="preserve">07:03 AM</t>
           </r>
         </is>
       </c>
       <c r="K65" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:37 PM</t>
+            <t xml:space="preserve">3:01 PM</t>
           </r>
         </is>
       </c>
       <c r="L65" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:07:00</t>
+            <t xml:space="preserve">7:58:00</t>
           </r>
         </is>
       </c>
@@ -5755,7 +5743,7 @@
       <c r="F66" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/07</t>
+            <t xml:space="preserve">2022/07/23</t>
           </r>
         </is>
       </c>
@@ -5783,21 +5771,21 @@
       <c r="J66" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:04 AM</t>
+            <t xml:space="preserve">07:16 AM</t>
           </r>
         </is>
       </c>
       <c r="K66" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:04 PM</t>
+            <t xml:space="preserve">2:58 PM</t>
           </r>
         </is>
       </c>
       <c r="L66" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:00:00</t>
+            <t xml:space="preserve">7:42:00</t>
           </r>
         </is>
       </c>
@@ -5813,19 +5801,19 @@
     </row>
     <row r="67" customHeight="0" bestFit="1" ht="20">
       <c r="A67" s="8" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="B67" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
       <c r="C67" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -5846,7 +5834,7 @@
       <c r="F67" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/07</t>
+            <t xml:space="preserve">2022/07/23</t>
           </r>
         </is>
       </c>
@@ -5874,37 +5862,49 @@
       <c r="J67" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:12 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K67" s="8" t="inlineStr"/>
-      <c r="L67" s="8" t="inlineStr"/>
+            <t xml:space="preserve">06:58 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K67" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3:09 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L67" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:11:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M67" s="8" t="inlineStr"/>
       <c r="N67" s="8" t="inlineStr"/>
       <c r="O67" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="68" customHeight="0" bestFit="1" ht="20">
       <c r="A68" s="8" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="B68" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
-          </r>
-        </is>
-      </c>
-      <c r="C68" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="C68" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -5925,7 +5925,7 @@
       <c r="F68" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/07</t>
+            <t xml:space="preserve">2022/07/23</t>
           </r>
         </is>
       </c>
@@ -5953,21 +5953,21 @@
       <c r="J68" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:03 AM</t>
+            <t xml:space="preserve">06:32 AM</t>
           </r>
         </is>
       </c>
       <c r="K68" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:19 PM</t>
+            <t xml:space="preserve">2:59 PM</t>
           </r>
         </is>
       </c>
       <c r="L68" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:16:00</t>
+            <t xml:space="preserve">8:26:00</t>
           </r>
         </is>
       </c>
@@ -5983,19 +5983,19 @@
     </row>
     <row r="69" customHeight="0" bestFit="1" ht="20">
       <c r="A69" s="8" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="B69" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
       <c r="C69" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -6016,7 +6016,7 @@
       <c r="F69" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/07</t>
+            <t xml:space="preserve">2022/07/23</t>
           </r>
         </is>
       </c>
@@ -6044,21 +6044,21 @@
       <c r="J69" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:12 AM</t>
+            <t xml:space="preserve">07:20 AM</t>
           </r>
         </is>
       </c>
       <c r="K69" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:14 PM</t>
+            <t xml:space="preserve">3:04 PM</t>
           </r>
         </is>
       </c>
       <c r="L69" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9:01:00</t>
+            <t xml:space="preserve">7:44:00</t>
           </r>
         </is>
       </c>
@@ -6074,19 +6074,19 @@
     </row>
     <row r="70" customHeight="0" bestFit="1" ht="20">
       <c r="A70" s="8" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="B70" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
-          </r>
-        </is>
-      </c>
-      <c r="C70" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+            <t xml:space="preserve">16</t>
+          </r>
+        </is>
+      </c>
+      <c r="C70" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -6107,7 +6107,7 @@
       <c r="F70" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/07</t>
+            <t xml:space="preserve">2022/07/23</t>
           </r>
         </is>
       </c>
@@ -6135,21 +6135,21 @@
       <c r="J70" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:59 AM</t>
+            <t xml:space="preserve">06:58 AM</t>
           </r>
         </is>
       </c>
       <c r="K70" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:17 PM</t>
+            <t xml:space="preserve">3:09 PM</t>
           </r>
         </is>
       </c>
       <c r="L70" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:18:00</t>
+            <t xml:space="preserve">8:11:00</t>
           </r>
         </is>
       </c>
@@ -6165,19 +6165,19 @@
     </row>
     <row r="71" customHeight="0" bestFit="1" ht="20">
       <c r="A71" s="8" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="B71" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">7</t>
           </r>
         </is>
       </c>
       <c r="C71" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
+            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
           </r>
         </is>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="F71" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/07</t>
+            <t xml:space="preserve">2022/07/22</t>
           </r>
         </is>
       </c>
@@ -6226,21 +6226,21 @@
       <c r="J71" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:03 AM</t>
+            <t xml:space="preserve">07:07 AM</t>
           </r>
         </is>
       </c>
       <c r="K71" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:19 PM</t>
+            <t xml:space="preserve">4:48 PM</t>
           </r>
         </is>
       </c>
       <c r="L71" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:16:00</t>
+            <t xml:space="preserve">9:41:00</t>
           </r>
         </is>
       </c>
@@ -6289,7 +6289,7 @@
       <c r="F72" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/07</t>
+            <t xml:space="preserve">2022/07/22</t>
           </r>
         </is>
       </c>
@@ -6317,21 +6317,21 @@
       <c r="J72" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:57 AM</t>
+            <t xml:space="preserve">09:37 AM</t>
           </r>
         </is>
       </c>
       <c r="K72" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:36 PM</t>
+            <t xml:space="preserve">6:47 PM</t>
           </r>
         </is>
       </c>
       <c r="L72" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:39:00</t>
+            <t xml:space="preserve">9:09:00</t>
           </r>
         </is>
       </c>
@@ -6347,19 +6347,19 @@
     </row>
     <row r="73" customHeight="0" bestFit="1" ht="20">
       <c r="A73" s="8" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B73" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">9</t>
           </r>
         </is>
       </c>
       <c r="C73" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">CATALINA ESCALANTE</t>
           </r>
         </is>
       </c>
@@ -6380,7 +6380,7 @@
       <c r="F73" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/06</t>
+            <t xml:space="preserve">2022/07/22</t>
           </r>
         </is>
       </c>
@@ -6408,21 +6408,21 @@
       <c r="J73" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:32 AM</t>
+            <t xml:space="preserve">09:05 AM</t>
           </r>
         </is>
       </c>
       <c r="K73" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:30 PM</t>
+            <t xml:space="preserve">3:04 PM</t>
           </r>
         </is>
       </c>
       <c r="L73" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:58:00</t>
+            <t xml:space="preserve">5:59:00</t>
           </r>
         </is>
       </c>
@@ -6438,19 +6438,19 @@
     </row>
     <row r="74" customHeight="0" bestFit="1" ht="20">
       <c r="A74" s="8" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="B74" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
       <c r="C74" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
           </r>
         </is>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="F74" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/06</t>
+            <t xml:space="preserve">2022/07/22</t>
           </r>
         </is>
       </c>
@@ -6499,21 +6499,21 @@
       <c r="J74" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:06 AM</t>
+            <t xml:space="preserve">07:55 AM</t>
           </r>
         </is>
       </c>
       <c r="K74" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:06 PM</t>
+            <t xml:space="preserve">4:51 PM</t>
           </r>
         </is>
       </c>
       <c r="L74" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:00:00</t>
+            <t xml:space="preserve">8:56:00</t>
           </r>
         </is>
       </c>
@@ -6529,19 +6529,19 @@
     </row>
     <row r="75" customHeight="0" bestFit="1" ht="20">
       <c r="A75" s="8" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="B75" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
       <c r="C75" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
           </r>
         </is>
       </c>
@@ -6562,7 +6562,7 @@
       <c r="F75" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/06</t>
+            <t xml:space="preserve">2022/07/22</t>
           </r>
         </is>
       </c>
@@ -6590,21 +6590,21 @@
       <c r="J75" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:23 AM</t>
+            <t xml:space="preserve">07:14 AM</t>
           </r>
         </is>
       </c>
       <c r="K75" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:45 PM</t>
+            <t xml:space="preserve">3:16 PM</t>
           </r>
         </is>
       </c>
       <c r="L75" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:22:00</t>
+            <t xml:space="preserve">8:01:00</t>
           </r>
         </is>
       </c>
@@ -6620,19 +6620,19 @@
     </row>
     <row r="76" customHeight="0" bestFit="1" ht="20">
       <c r="A76" s="8" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="B76" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
-          </r>
-        </is>
-      </c>
-      <c r="C76" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="C76" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
           </r>
         </is>
       </c>
@@ -6653,7 +6653,7 @@
       <c r="F76" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/06</t>
+            <t xml:space="preserve">2022/07/22</t>
           </r>
         </is>
       </c>
@@ -6681,21 +6681,21 @@
       <c r="J76" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:39 AM</t>
+            <t xml:space="preserve">07:00 AM</t>
           </r>
         </is>
       </c>
       <c r="K76" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:26 PM</t>
+            <t xml:space="preserve">3:05 PM</t>
           </r>
         </is>
       </c>
       <c r="L76" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:46:00</t>
+            <t xml:space="preserve">8:05:00</t>
           </r>
         </is>
       </c>
@@ -6744,7 +6744,7 @@
       <c r="F77" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/06</t>
+            <t xml:space="preserve">2022/07/22</t>
           </r>
         </is>
       </c>
@@ -6772,37 +6772,49 @@
       <c r="J77" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:05 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K77" s="8" t="inlineStr"/>
-      <c r="L77" s="8" t="inlineStr"/>
+            <t xml:space="preserve">07:02 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K77" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3:00 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L77" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">7:58:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M77" s="8" t="inlineStr"/>
       <c r="N77" s="8" t="inlineStr"/>
       <c r="O77" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="78" customHeight="0" bestFit="1" ht="20">
       <c r="A78" s="8" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="B78" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
       <c r="C78" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -6823,7 +6835,7 @@
       <c r="F78" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/06</t>
+            <t xml:space="preserve">2022/07/22</t>
           </r>
         </is>
       </c>
@@ -6851,21 +6863,21 @@
       <c r="J78" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:10 AM</t>
+            <t xml:space="preserve">10:05 AM</t>
           </r>
         </is>
       </c>
       <c r="K78" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2:39 PM</t>
+            <t xml:space="preserve">6:10 PM</t>
           </r>
         </is>
       </c>
       <c r="L78" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:29:00</t>
+            <t xml:space="preserve">8:05:00</t>
           </r>
         </is>
       </c>
@@ -6881,19 +6893,19 @@
     </row>
     <row r="79" customHeight="0" bestFit="1" ht="20">
       <c r="A79" s="8" t="n">
-        <v>16.0</v>
+        <v>12.0</v>
       </c>
       <c r="B79" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
-          </r>
-        </is>
-      </c>
-      <c r="C79" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="C79" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -6914,7 +6926,7 @@
       <c r="F79" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/06</t>
+            <t xml:space="preserve">2022/07/22</t>
           </r>
         </is>
       </c>
@@ -6942,21 +6954,21 @@
       <c r="J79" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:02 AM</t>
+            <t xml:space="preserve">06:38 AM</t>
           </r>
         </is>
       </c>
       <c r="K79" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:10 PM</t>
+            <t xml:space="preserve">3:00 PM</t>
           </r>
         </is>
       </c>
       <c r="L79" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:07:00</t>
+            <t xml:space="preserve">8:22:00</t>
           </r>
         </is>
       </c>
@@ -6972,19 +6984,19 @@
     </row>
     <row r="80" customHeight="0" bestFit="1" ht="20">
       <c r="A80" s="8" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="B80" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">16</t>
           </r>
         </is>
       </c>
       <c r="C80" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -7005,7 +7017,7 @@
       <c r="F80" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/06</t>
+            <t xml:space="preserve">2022/07/22</t>
           </r>
         </is>
       </c>
@@ -7033,21 +7045,21 @@
       <c r="J80" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:08 AM</t>
+            <t xml:space="preserve">10:04 AM</t>
           </r>
         </is>
       </c>
       <c r="K80" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:31 PM</t>
+            <t xml:space="preserve">6:09 PM</t>
           </r>
         </is>
       </c>
       <c r="L80" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9:22:00</t>
+            <t xml:space="preserve">8:05:00</t>
           </r>
         </is>
       </c>
@@ -7063,19 +7075,19 @@
     </row>
     <row r="81" customHeight="0" bestFit="1" ht="20">
       <c r="A81" s="8" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="B81" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
-          </r>
-        </is>
-      </c>
-      <c r="C81" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="C81" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -7096,7 +7108,7 @@
       <c r="F81" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/06</t>
+            <t xml:space="preserve">2022/07/22</t>
           </r>
         </is>
       </c>
@@ -7124,21 +7136,21 @@
       <c r="J81" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:00 AM</t>
+            <t xml:space="preserve">07:30 AM</t>
           </r>
         </is>
       </c>
       <c r="K81" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:09 PM</t>
+            <t xml:space="preserve">3:41 PM</t>
           </r>
         </is>
       </c>
       <c r="L81" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:09:00</t>
+            <t xml:space="preserve">8:11:00</t>
           </r>
         </is>
       </c>
@@ -7154,19 +7166,19 @@
     </row>
     <row r="82" customHeight="0" bestFit="1" ht="20">
       <c r="A82" s="8" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="B82" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18</t>
-          </r>
-        </is>
-      </c>
-      <c r="C82" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="C82" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
           </r>
         </is>
       </c>
@@ -7187,7 +7199,7 @@
       <c r="F82" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/06</t>
+            <t xml:space="preserve">2022/07/21</t>
           </r>
         </is>
       </c>
@@ -7215,49 +7227,43 @@
       <c r="J82" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:46 AM</t>
+            <t xml:space="preserve">08:04 AM</t>
           </r>
         </is>
       </c>
       <c r="K82" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:18 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L82" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">8:31:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">4:21 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L82" s="8" t="inlineStr"/>
       <c r="M82" s="8" t="inlineStr"/>
       <c r="N82" s="8" t="inlineStr"/>
       <c r="O82" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="83" customHeight="0" bestFit="1" ht="20">
       <c r="A83" s="8" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="B83" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
-          </r>
-        </is>
-      </c>
-      <c r="C83" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c r="C83" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
           </r>
         </is>
       </c>
@@ -7278,7 +7284,7 @@
       <c r="F83" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/05</t>
+            <t xml:space="preserve">2022/07/21</t>
           </r>
         </is>
       </c>
@@ -7306,21 +7312,21 @@
       <c r="J83" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:11 AM</t>
+            <t xml:space="preserve">07:10 AM</t>
           </r>
         </is>
       </c>
       <c r="K83" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:03 PM</t>
+            <t xml:space="preserve">5:56 PM</t>
           </r>
         </is>
       </c>
       <c r="L83" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:51:00</t>
+            <t xml:space="preserve">10:46:00</t>
           </r>
         </is>
       </c>
@@ -7369,7 +7375,7 @@
       <c r="F84" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/05</t>
+            <t xml:space="preserve">2022/07/21</t>
           </r>
         </is>
       </c>
@@ -7397,21 +7403,21 @@
       <c r="J84" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:02 AM</t>
+            <t xml:space="preserve">09:03 AM</t>
           </r>
         </is>
       </c>
       <c r="K84" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:16 PM</t>
+            <t xml:space="preserve">3:19 PM</t>
           </r>
         </is>
       </c>
       <c r="L84" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:14:00</t>
+            <t xml:space="preserve">6:15:00</t>
           </r>
         </is>
       </c>
@@ -7427,19 +7433,19 @@
     </row>
     <row r="85" customHeight="0" bestFit="1" ht="20">
       <c r="A85" s="8" t="n">
-        <v>2.0</v>
+        <v>18.0</v>
       </c>
       <c r="B85" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
       <c r="C85" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
           </r>
         </is>
       </c>
@@ -7460,7 +7466,7 @@
       <c r="F85" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/05</t>
+            <t xml:space="preserve">2022/07/21</t>
           </r>
         </is>
       </c>
@@ -7488,21 +7494,21 @@
       <c r="J85" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:09 AM</t>
+            <t xml:space="preserve">09:59 AM</t>
           </r>
         </is>
       </c>
       <c r="K85" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:29 PM</t>
+            <t xml:space="preserve">6:32 PM</t>
           </r>
         </is>
       </c>
       <c r="L85" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:20:00</t>
+            <t xml:space="preserve">8:33:00</t>
           </r>
         </is>
       </c>
@@ -7518,19 +7524,19 @@
     </row>
     <row r="86" customHeight="0" bestFit="1" ht="20">
       <c r="A86" s="8" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="B86" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
-          </r>
-        </is>
-      </c>
-      <c r="C86" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">8</t>
+          </r>
+        </is>
+      </c>
+      <c r="C86" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
           </r>
         </is>
       </c>
@@ -7551,7 +7557,7 @@
       <c r="F86" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/05</t>
+            <t xml:space="preserve">2022/07/21</t>
           </r>
         </is>
       </c>
@@ -7579,37 +7585,49 @@
       <c r="J86" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:44 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K86" s="8" t="inlineStr"/>
-      <c r="L86" s="8" t="inlineStr"/>
+            <t xml:space="preserve">07:02 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K86" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3:55 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L86" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:52:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M86" s="8" t="inlineStr"/>
       <c r="N86" s="8" t="inlineStr"/>
       <c r="O86" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="87" customHeight="0" bestFit="1" ht="20">
       <c r="A87" s="8" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="B87" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17</t>
-          </r>
-        </is>
-      </c>
-      <c r="C87" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="C87" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
           </r>
         </is>
       </c>
@@ -7630,7 +7648,7 @@
       <c r="F87" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/05</t>
+            <t xml:space="preserve">2022/07/21</t>
           </r>
         </is>
       </c>
@@ -7658,21 +7676,21 @@
       <c r="J87" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:02 AM</t>
+            <t xml:space="preserve">06:57 AM</t>
           </r>
         </is>
       </c>
       <c r="K87" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:11 PM</t>
+            <t xml:space="preserve">3:37 PM</t>
           </r>
         </is>
       </c>
       <c r="L87" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:09:00</t>
+            <t xml:space="preserve">8:39:00</t>
           </r>
         </is>
       </c>
@@ -7688,19 +7706,19 @@
     </row>
     <row r="88" customHeight="0" bestFit="1" ht="20">
       <c r="A88" s="8" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="B88" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
-          </r>
-        </is>
-      </c>
-      <c r="C88" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="C88" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
           </r>
         </is>
       </c>
@@ -7721,7 +7739,7 @@
       <c r="F88" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/05</t>
+            <t xml:space="preserve">2022/07/21</t>
           </r>
         </is>
       </c>
@@ -7749,37 +7767,49 @@
       <c r="J88" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:18 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K88" s="8" t="inlineStr"/>
-      <c r="L88" s="8" t="inlineStr"/>
+            <t xml:space="preserve">07:03 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K88" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3:08 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L88" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:05:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M88" s="8" t="inlineStr"/>
       <c r="N88" s="8" t="inlineStr"/>
       <c r="O88" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="89" customHeight="0" bestFit="1" ht="20">
       <c r="A89" s="8" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="B89" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
       <c r="C89" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -7800,7 +7830,7 @@
       <c r="F89" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/05</t>
+            <t xml:space="preserve">2022/07/21</t>
           </r>
         </is>
       </c>
@@ -7828,7 +7858,7 @@
       <c r="J89" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:02 AM</t>
+            <t xml:space="preserve">09:04 AM</t>
           </r>
         </is>
       </c>
@@ -7842,7 +7872,7 @@
       <c r="L89" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:09:00</t>
+            <t xml:space="preserve">9:07:00</t>
           </r>
         </is>
       </c>
@@ -7858,19 +7888,19 @@
     </row>
     <row r="90" customHeight="0" bestFit="1" ht="20">
       <c r="A90" s="8" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="B90" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5</t>
-          </r>
-        </is>
-      </c>
-      <c r="C90" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
+            <t xml:space="preserve">16</t>
+          </r>
+        </is>
+      </c>
+      <c r="C90" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -7891,7 +7921,7 @@
       <c r="F90" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/05</t>
+            <t xml:space="preserve">2022/07/21</t>
           </r>
         </is>
       </c>
@@ -7919,21 +7949,21 @@
       <c r="J90" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:02 AM</t>
+            <t xml:space="preserve">09:02 AM</t>
           </r>
         </is>
       </c>
       <c r="K90" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:01 PM</t>
+            <t xml:space="preserve">6:16 PM</t>
           </r>
         </is>
       </c>
       <c r="L90" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:59:00</t>
+            <t xml:space="preserve">9:13:00</t>
           </r>
         </is>
       </c>
@@ -7949,19 +7979,19 @@
     </row>
     <row r="91" customHeight="0" bestFit="1" ht="20">
       <c r="A91" s="8" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="B91" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
-          </r>
-        </is>
-      </c>
-      <c r="C91" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="C91" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -7982,7 +8012,7 @@
       <c r="F91" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/05</t>
+            <t xml:space="preserve">2022/07/21</t>
           </r>
         </is>
       </c>
@@ -8010,21 +8040,21 @@
       <c r="J91" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:00 AM</t>
+            <t xml:space="preserve">06:38 AM</t>
           </r>
         </is>
       </c>
       <c r="K91" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:02 PM</t>
+            <t xml:space="preserve">3:01 PM</t>
           </r>
         </is>
       </c>
       <c r="L91" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:01:00</t>
+            <t xml:space="preserve">8:22:00</t>
           </r>
         </is>
       </c>
@@ -8040,19 +8070,19 @@
     </row>
     <row r="92" customHeight="0" bestFit="1" ht="20">
       <c r="A92" s="8" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="B92" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
       <c r="C92" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -8073,7 +8103,7 @@
       <c r="F92" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/05</t>
+            <t xml:space="preserve">2022/07/21</t>
           </r>
         </is>
       </c>
@@ -8101,21 +8131,21 @@
       <c r="J92" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:10 AM</t>
+            <t xml:space="preserve">07:30 AM</t>
           </r>
         </is>
       </c>
       <c r="K92" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:18 PM</t>
+            <t xml:space="preserve">3:41 PM</t>
           </r>
         </is>
       </c>
       <c r="L92" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9:07:00</t>
+            <t xml:space="preserve">8:11:00</t>
           </r>
         </is>
       </c>
@@ -8131,19 +8161,19 @@
     </row>
     <row r="93" customHeight="0" bestFit="1" ht="20">
       <c r="A93" s="8" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="B93" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18</t>
-          </r>
-        </is>
-      </c>
-      <c r="C93" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="C93" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
           </r>
         </is>
       </c>
@@ -8164,7 +8194,7 @@
       <c r="F93" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/05</t>
+            <t xml:space="preserve">2022/07/20</t>
           </r>
         </is>
       </c>
@@ -8192,21 +8222,21 @@
       <c r="J93" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:43 AM</t>
+            <t xml:space="preserve">08:06 AM</t>
           </r>
         </is>
       </c>
       <c r="K93" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:31 PM</t>
+            <t xml:space="preserve">4:52 PM</t>
           </r>
         </is>
       </c>
       <c r="L93" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:48:00</t>
+            <t xml:space="preserve">8:46:00</t>
           </r>
         </is>
       </c>
@@ -8222,19 +8252,19 @@
     </row>
     <row r="94" customHeight="0" bestFit="1" ht="20">
       <c r="A94" s="8" t="n">
-        <v>13.0</v>
+        <v>7.0</v>
       </c>
       <c r="B94" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
-          </r>
-        </is>
-      </c>
-      <c r="C94" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">7</t>
+          </r>
+        </is>
+      </c>
+      <c r="C94" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
           </r>
         </is>
       </c>
@@ -8255,7 +8285,7 @@
       <c r="F94" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/04</t>
+            <t xml:space="preserve">2022/07/20</t>
           </r>
         </is>
       </c>
@@ -8283,21 +8313,21 @@
       <c r="J94" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:12 AM</t>
+            <t xml:space="preserve">07:06 AM</t>
           </r>
         </is>
       </c>
       <c r="K94" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:15 PM</t>
+            <t xml:space="preserve">5:45 PM</t>
           </r>
         </is>
       </c>
       <c r="L94" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:03:00</t>
+            <t xml:space="preserve">10:39:00</t>
           </r>
         </is>
       </c>
@@ -8313,19 +8343,19 @@
     </row>
     <row r="95" customHeight="0" bestFit="1" ht="20">
       <c r="A95" s="8" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="B95" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c r="C95" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">8</t>
+          </r>
+        </is>
+      </c>
+      <c r="C95" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
           </r>
         </is>
       </c>
@@ -8346,7 +8376,7 @@
       <c r="F95" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/04</t>
+            <t xml:space="preserve">2022/07/20</t>
           </r>
         </is>
       </c>
@@ -8374,21 +8404,21 @@
       <c r="J95" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:06 AM</t>
+            <t xml:space="preserve">07:10 AM</t>
           </r>
         </is>
       </c>
       <c r="K95" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:04 PM</t>
+            <t xml:space="preserve">3:35 PM</t>
           </r>
         </is>
       </c>
       <c r="L95" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5:58:00</t>
+            <t xml:space="preserve">8:24:00</t>
           </r>
         </is>
       </c>
@@ -8404,19 +8434,19 @@
     </row>
     <row r="96" customHeight="0" bestFit="1" ht="20">
       <c r="A96" s="8" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="B96" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">9</t>
           </r>
         </is>
       </c>
       <c r="C96" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
+            <t xml:space="preserve">CATALINA ESCALANTE</t>
           </r>
         </is>
       </c>
@@ -8437,7 +8467,7 @@
       <c r="F96" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/04</t>
+            <t xml:space="preserve">2022/07/20</t>
           </r>
         </is>
       </c>
@@ -8465,21 +8495,21 @@
       <c r="J96" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:01 AM</t>
+            <t xml:space="preserve">09:03 AM</t>
           </r>
         </is>
       </c>
       <c r="K96" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:01 PM</t>
+            <t xml:space="preserve">3:13 PM</t>
           </r>
         </is>
       </c>
       <c r="L96" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:00:00</t>
+            <t xml:space="preserve">6:10:00</t>
           </r>
         </is>
       </c>
@@ -8495,19 +8525,19 @@
     </row>
     <row r="97" customHeight="0" bestFit="1" ht="20">
       <c r="A97" s="8" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="B97" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
       <c r="C97" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
           </r>
         </is>
       </c>
@@ -8528,7 +8558,7 @@
       <c r="F97" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/04</t>
+            <t xml:space="preserve">2022/07/20</t>
           </r>
         </is>
       </c>
@@ -8556,37 +8586,49 @@
       <c r="J97" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:14 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K97" s="8" t="inlineStr"/>
-      <c r="L97" s="8" t="inlineStr"/>
+            <t xml:space="preserve">10:49 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K97" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">6:33 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L97" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">7:44:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M97" s="8" t="inlineStr"/>
       <c r="N97" s="8" t="inlineStr"/>
       <c r="O97" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="98" customHeight="0" bestFit="1" ht="20">
       <c r="A98" s="8" t="n">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="B98" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
-          </r>
-        </is>
-      </c>
-      <c r="C98" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
           </r>
         </is>
       </c>
@@ -8607,7 +8649,7 @@
       <c r="F98" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/04</t>
+            <t xml:space="preserve">2022/07/20</t>
           </r>
         </is>
       </c>
@@ -8635,21 +8677,21 @@
       <c r="J98" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:36 AM</t>
+            <t xml:space="preserve">07:00 AM</t>
           </r>
         </is>
       </c>
       <c r="K98" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:44 PM</t>
+            <t xml:space="preserve">3:21 PM</t>
           </r>
         </is>
       </c>
       <c r="L98" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:07:00</t>
+            <t xml:space="preserve">8:20:00</t>
           </r>
         </is>
       </c>
@@ -8665,19 +8707,19 @@
     </row>
     <row r="99" customHeight="0" bestFit="1" ht="20">
       <c r="A99" s="8" t="n">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="B99" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
-          </r>
-        </is>
-      </c>
-      <c r="C99" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="C99" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
           </r>
         </is>
       </c>
@@ -8698,7 +8740,7 @@
       <c r="F99" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/04</t>
+            <t xml:space="preserve">2022/07/20</t>
           </r>
         </is>
       </c>
@@ -8726,21 +8768,21 @@
       <c r="J99" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:00 AM</t>
+            <t xml:space="preserve">07:04 AM</t>
           </r>
         </is>
       </c>
       <c r="K99" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:01 PM</t>
+            <t xml:space="preserve">3:31 PM</t>
           </r>
         </is>
       </c>
       <c r="L99" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:01:00</t>
+            <t xml:space="preserve">8:26:00</t>
           </r>
         </is>
       </c>
@@ -8756,19 +8798,19 @@
     </row>
     <row r="100" customHeight="0" bestFit="1" ht="20">
       <c r="A100" s="8" t="n">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="B100" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
-          </r>
-        </is>
-      </c>
-      <c r="C100" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">17</t>
+          </r>
+        </is>
+      </c>
+      <c r="C100" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -8789,7 +8831,7 @@
       <c r="F100" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/04</t>
+            <t xml:space="preserve">2022/07/20</t>
           </r>
         </is>
       </c>
@@ -8817,21 +8859,21 @@
       <c r="J100" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:41 AM</t>
+            <t xml:space="preserve">10:01 AM</t>
           </r>
         </is>
       </c>
       <c r="K100" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:15 PM</t>
+            <t xml:space="preserve">6:13 PM</t>
           </r>
         </is>
       </c>
       <c r="L100" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:33:00</t>
+            <t xml:space="preserve">8:11:00</t>
           </r>
         </is>
       </c>
@@ -8847,19 +8889,19 @@
     </row>
     <row r="101" customHeight="0" bestFit="1" ht="20">
       <c r="A101" s="8" t="n">
-        <v>17.0</v>
+        <v>16.0</v>
       </c>
       <c r="B101" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">16</t>
           </r>
         </is>
       </c>
       <c r="C101" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -8880,7 +8922,7 @@
       <c r="F101" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/04</t>
+            <t xml:space="preserve">2022/07/20</t>
           </r>
         </is>
       </c>
@@ -8908,37 +8950,49 @@
       <c r="J101" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:20 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K101" s="8" t="inlineStr"/>
-      <c r="L101" s="8" t="inlineStr"/>
+            <t xml:space="preserve">12:18 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K101" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">6:13 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L101" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">5:55:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M101" s="8" t="inlineStr"/>
       <c r="N101" s="8" t="inlineStr"/>
       <c r="O101" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="102" customHeight="0" bestFit="1" ht="20">
       <c r="A102" s="8" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="B102" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18</t>
-          </r>
-        </is>
-      </c>
-      <c r="C102" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="C102" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -8959,7 +9013,7 @@
       <c r="F102" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/04</t>
+            <t xml:space="preserve">2022/07/20</t>
           </r>
         </is>
       </c>
@@ -8987,21 +9041,21 @@
       <c r="J102" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:53 AM</t>
+            <t xml:space="preserve">06:37 AM</t>
           </r>
         </is>
       </c>
       <c r="K102" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:24 PM</t>
+            <t xml:space="preserve">3:05 PM</t>
           </r>
         </is>
       </c>
       <c r="L102" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:31:00</t>
+            <t xml:space="preserve">8:28:00</t>
           </r>
         </is>
       </c>
@@ -9017,19 +9071,19 @@
     </row>
     <row r="103" customHeight="0" bestFit="1" ht="20">
       <c r="A103" s="8" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="B103" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
       <c r="C103" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -9050,7 +9104,7 @@
       <c r="F103" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/04</t>
+            <t xml:space="preserve">2022/07/20</t>
           </r>
         </is>
       </c>
@@ -9078,21 +9132,21 @@
       <c r="J103" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:04 AM</t>
+            <t xml:space="preserve">07:32 AM</t>
           </r>
         </is>
       </c>
       <c r="K103" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:20 PM</t>
+            <t xml:space="preserve">3:40 PM</t>
           </r>
         </is>
       </c>
       <c r="L103" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:16:00</t>
+            <t xml:space="preserve">8:07:00</t>
           </r>
         </is>
       </c>
@@ -9141,7 +9195,7 @@
       <c r="F104" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/04</t>
+            <t xml:space="preserve">2022/07/19</t>
           </r>
         </is>
       </c>
@@ -9169,21 +9223,21 @@
       <c r="J104" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5:15 PM</t>
+            <t xml:space="preserve">07:02 AM</t>
           </r>
         </is>
       </c>
       <c r="K104" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5:17 PM</t>
+            <t xml:space="preserve">6:13 PM</t>
           </r>
         </is>
       </c>
       <c r="L104" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">0:02:00</t>
+            <t xml:space="preserve">11:11:00</t>
           </r>
         </is>
       </c>
@@ -9199,19 +9253,19 @@
     </row>
     <row r="105" customHeight="0" bestFit="1" ht="20">
       <c r="A105" s="8" t="n">
-        <v>13.0</v>
+        <v>8.0</v>
       </c>
       <c r="B105" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
-          </r>
-        </is>
-      </c>
-      <c r="C105" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">8</t>
+          </r>
+        </is>
+      </c>
+      <c r="C105" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
           </r>
         </is>
       </c>
@@ -9232,7 +9286,7 @@
       <c r="F105" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/02</t>
+            <t xml:space="preserve">2022/07/19</t>
           </r>
         </is>
       </c>
@@ -9260,21 +9314,21 @@
       <c r="J105" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:14 AM</t>
+            <t xml:space="preserve">06:52 AM</t>
           </r>
         </is>
       </c>
       <c r="K105" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:09 PM</t>
+            <t xml:space="preserve">3:40 PM</t>
           </r>
         </is>
       </c>
       <c r="L105" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:55:00</t>
+            <t xml:space="preserve">8:48:00</t>
           </r>
         </is>
       </c>
@@ -9290,19 +9344,19 @@
     </row>
     <row r="106" customHeight="0" bestFit="1" ht="20">
       <c r="A106" s="8" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="B106" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
+            <t xml:space="preserve">13</t>
           </r>
         </is>
       </c>
       <c r="C106" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
           </r>
         </is>
       </c>
@@ -9323,7 +9377,7 @@
       <c r="F106" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/02</t>
+            <t xml:space="preserve">2022/07/19</t>
           </r>
         </is>
       </c>
@@ -9351,21 +9405,21 @@
       <c r="J106" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:02 AM</t>
+            <t xml:space="preserve">07:55 AM</t>
           </r>
         </is>
       </c>
       <c r="K106" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:09 PM</t>
+            <t xml:space="preserve">4:24 PM</t>
           </r>
         </is>
       </c>
       <c r="L106" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:06:00</t>
+            <t xml:space="preserve">8:28:00</t>
           </r>
         </is>
       </c>
@@ -9381,19 +9435,19 @@
     </row>
     <row r="107" customHeight="0" bestFit="1" ht="20">
       <c r="A107" s="8" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="B107" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
-          </r>
-        </is>
-      </c>
-      <c r="C107" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+            <t xml:space="preserve">18</t>
+          </r>
+        </is>
+      </c>
+      <c r="C107" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
           </r>
         </is>
       </c>
@@ -9414,7 +9468,7 @@
       <c r="F107" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/02</t>
+            <t xml:space="preserve">2022/07/19</t>
           </r>
         </is>
       </c>
@@ -9442,49 +9496,37 @@
       <c r="J107" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:05 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K107" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">3:02 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L107" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">7:57:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">10:01 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K107" s="8" t="inlineStr"/>
+      <c r="L107" s="8" t="inlineStr"/>
       <c r="M107" s="8" t="inlineStr"/>
       <c r="N107" s="8" t="inlineStr"/>
       <c r="O107" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="108" customHeight="0" bestFit="1" ht="20">
       <c r="A108" s="8" t="n">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
       <c r="B108" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">17</t>
           </r>
         </is>
       </c>
       <c r="C108" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -9505,7 +9547,7 @@
       <c r="F108" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/02</t>
+            <t xml:space="preserve">2022/07/19</t>
           </r>
         </is>
       </c>
@@ -9533,21 +9575,21 @@
       <c r="J108" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:18 AM</t>
+            <t xml:space="preserve">10:01 AM</t>
           </r>
         </is>
       </c>
       <c r="K108" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:08 PM</t>
+            <t xml:space="preserve">6:11 PM</t>
           </r>
         </is>
       </c>
       <c r="L108" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:49:00</t>
+            <t xml:space="preserve">8:09:00</t>
           </r>
         </is>
       </c>
@@ -9563,19 +9605,19 @@
     </row>
     <row r="109" customHeight="0" bestFit="1" ht="20">
       <c r="A109" s="8" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="B109" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
-          </r>
-        </is>
-      </c>
-      <c r="C109" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="C109" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
           </r>
         </is>
       </c>
@@ -9596,7 +9638,7 @@
       <c r="F109" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/02</t>
+            <t xml:space="preserve">2022/07/19</t>
           </r>
         </is>
       </c>
@@ -9624,37 +9666,49 @@
       <c r="J109" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:49 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K109" s="8" t="inlineStr"/>
-      <c r="L109" s="8" t="inlineStr"/>
+            <t xml:space="preserve">06:57 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K109" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3:12 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L109" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:15:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M109" s="8" t="inlineStr"/>
       <c r="N109" s="8" t="inlineStr"/>
       <c r="O109" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="110" customHeight="0" bestFit="1" ht="20">
       <c r="A110" s="8" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="B110" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
       <c r="C110" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
           </r>
         </is>
       </c>
@@ -9675,7 +9729,7 @@
       <c r="F110" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/02</t>
+            <t xml:space="preserve">2022/07/19</t>
           </r>
         </is>
       </c>
@@ -9703,37 +9757,49 @@
       <c r="J110" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:30 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K110" s="8" t="inlineStr"/>
-      <c r="L110" s="8" t="inlineStr"/>
+            <t xml:space="preserve">07:05 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K110" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3:05 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L110" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:00:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M110" s="8" t="inlineStr"/>
       <c r="N110" s="8" t="inlineStr"/>
       <c r="O110" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="111" customHeight="0" bestFit="1" ht="20">
       <c r="A111" s="8" t="n">
-        <v>18.0</v>
+        <v>2.0</v>
       </c>
       <c r="B111" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
       <c r="C111" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -9754,7 +9820,7 @@
       <c r="F111" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/02</t>
+            <t xml:space="preserve">2022/07/19</t>
           </r>
         </is>
       </c>
@@ -9782,37 +9848,49 @@
       <c r="J111" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:26 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K111" s="8" t="inlineStr"/>
-      <c r="L111" s="8" t="inlineStr"/>
+            <t xml:space="preserve">07:26 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K111" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">4:01 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L111" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:35:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M111" s="8" t="inlineStr"/>
       <c r="N111" s="8" t="inlineStr"/>
       <c r="O111" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="112" customHeight="0" bestFit="1" ht="20">
       <c r="A112" s="8" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="B112" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5</t>
+            <t xml:space="preserve">12</t>
           </r>
         </is>
       </c>
       <c r="C112" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -9833,7 +9911,7 @@
       <c r="F112" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/02</t>
+            <t xml:space="preserve">2022/07/19</t>
           </r>
         </is>
       </c>
@@ -9861,37 +9939,49 @@
       <c r="J112" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:03 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K112" s="8" t="inlineStr"/>
-      <c r="L112" s="8" t="inlineStr"/>
+            <t xml:space="preserve">06:45 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K112" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2:56 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L112" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:11:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M112" s="8" t="inlineStr"/>
       <c r="N112" s="8" t="inlineStr"/>
       <c r="O112" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="113" customHeight="0" bestFit="1" ht="20">
       <c r="A113" s="8" t="n">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="B113" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">7</t>
           </r>
         </is>
       </c>
       <c r="C113" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
+            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
           </r>
         </is>
       </c>
@@ -9912,7 +10002,7 @@
       <c r="F113" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/02</t>
+            <t xml:space="preserve">2022/07/18</t>
           </r>
         </is>
       </c>
@@ -9940,49 +10030,37 @@
       <c r="J113" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:18 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K113" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">3:14 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L113" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">7:56:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">6:19 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K113" s="8" t="inlineStr"/>
+      <c r="L113" s="8" t="inlineStr"/>
       <c r="M113" s="8" t="inlineStr"/>
       <c r="N113" s="8" t="inlineStr"/>
       <c r="O113" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="114" customHeight="0" bestFit="1" ht="20">
       <c r="A114" s="8" t="n">
-        <v>16.0</v>
+        <v>8.0</v>
       </c>
       <c r="B114" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
       <c r="C114" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
           </r>
         </is>
       </c>
@@ -10003,7 +10081,7 @@
       <c r="F114" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/02</t>
+            <t xml:space="preserve">2022/07/18</t>
           </r>
         </is>
       </c>
@@ -10031,21 +10109,21 @@
       <c r="J114" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:18 AM</t>
+            <t xml:space="preserve">07:14 AM</t>
           </r>
         </is>
       </c>
       <c r="K114" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:14 PM</t>
+            <t xml:space="preserve">3:44 PM</t>
           </r>
         </is>
       </c>
       <c r="L114" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:56:00</t>
+            <t xml:space="preserve">8:30:00</t>
           </r>
         </is>
       </c>
@@ -10061,19 +10139,19 @@
     </row>
     <row r="115" customHeight="0" bestFit="1" ht="20">
       <c r="A115" s="8" t="n">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="B115" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
       <c r="C115" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
+            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
           </r>
         </is>
       </c>
@@ -10094,7 +10172,7 @@
       <c r="F115" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/02</t>
+            <t xml:space="preserve">2022/07/18</t>
           </r>
         </is>
       </c>
@@ -10122,21 +10200,21 @@
       <c r="J115" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:05 AM</t>
+            <t xml:space="preserve">09:55 AM</t>
           </r>
         </is>
       </c>
       <c r="K115" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:08 PM</t>
+            <t xml:space="preserve">6:42 PM</t>
           </r>
         </is>
       </c>
       <c r="L115" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:03:00</t>
+            <t xml:space="preserve">8:46:00</t>
           </r>
         </is>
       </c>
@@ -10152,19 +10230,19 @@
     </row>
     <row r="116" customHeight="0" bestFit="1" ht="20">
       <c r="A116" s="8" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B116" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
+            <t xml:space="preserve">9</t>
           </r>
         </is>
       </c>
       <c r="C116" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">CATALINA ESCALANTE</t>
           </r>
         </is>
       </c>
@@ -10185,7 +10263,7 @@
       <c r="F116" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/01</t>
+            <t xml:space="preserve">2022/07/18</t>
           </r>
         </is>
       </c>
@@ -10213,21 +10291,21 @@
       <c r="J116" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:01 AM</t>
+            <t xml:space="preserve">09:09 AM</t>
           </r>
         </is>
       </c>
       <c r="K116" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:24 PM</t>
+            <t xml:space="preserve">3:04 PM</t>
           </r>
         </is>
       </c>
       <c r="L116" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:22:00</t>
+            <t xml:space="preserve">5:55:00</t>
           </r>
         </is>
       </c>
@@ -10243,19 +10321,19 @@
     </row>
     <row r="117" customHeight="0" bestFit="1" ht="20">
       <c r="A117" s="8" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="B117" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c r="C117" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">17</t>
+          </r>
+        </is>
+      </c>
+      <c r="C117" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -10276,7 +10354,7 @@
       <c r="F117" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/01</t>
+            <t xml:space="preserve">2022/07/18</t>
           </r>
         </is>
       </c>
@@ -10304,21 +10382,21 @@
       <c r="J117" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:05 AM</t>
+            <t xml:space="preserve">10:09 AM</t>
           </r>
         </is>
       </c>
       <c r="K117" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:38 PM</t>
+            <t xml:space="preserve">6:21 PM</t>
           </r>
         </is>
       </c>
       <c r="L117" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:32:00</t>
+            <t xml:space="preserve">8:11:00</t>
           </r>
         </is>
       </c>
@@ -10334,19 +10412,19 @@
     </row>
     <row r="118" customHeight="0" bestFit="1" ht="20">
       <c r="A118" s="8" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="B118" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
-          </r>
-        </is>
-      </c>
-      <c r="C118" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">16</t>
+          </r>
+        </is>
+      </c>
+      <c r="C118" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -10367,7 +10445,7 @@
       <c r="F118" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/01</t>
+            <t xml:space="preserve">2022/07/18</t>
           </r>
         </is>
       </c>
@@ -10395,37 +10473,49 @@
       <c r="J118" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:36 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K118" s="8" t="inlineStr"/>
-      <c r="L118" s="8" t="inlineStr"/>
+            <t xml:space="preserve">10:09 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K118" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">6:14 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L118" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:05:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M118" s="8" t="inlineStr"/>
       <c r="N118" s="8" t="inlineStr"/>
       <c r="O118" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="119" customHeight="0" bestFit="1" ht="20">
       <c r="A119" s="8" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="B119" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
-          </r>
-        </is>
-      </c>
-      <c r="C119" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="C119" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -10446,7 +10536,7 @@
       <c r="F119" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/01</t>
+            <t xml:space="preserve">2022/07/18</t>
           </r>
         </is>
       </c>
@@ -10474,21 +10564,21 @@
       <c r="J119" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:57 AM</t>
+            <t xml:space="preserve">07:35 AM</t>
           </r>
         </is>
       </c>
       <c r="K119" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:06 PM</t>
+            <t xml:space="preserve">3:30 PM</t>
           </r>
         </is>
       </c>
       <c r="L119" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:09:00</t>
+            <t xml:space="preserve">7:55:00</t>
           </r>
         </is>
       </c>
@@ -10537,7 +10627,7 @@
       <c r="F120" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/01</t>
+            <t xml:space="preserve">2022/07/18</t>
           </r>
         </is>
       </c>
@@ -10565,21 +10655,21 @@
       <c r="J120" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:09 AM</t>
+            <t xml:space="preserve">06:59 AM</t>
           </r>
         </is>
       </c>
       <c r="K120" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:18 PM</t>
+            <t xml:space="preserve">3:02 PM</t>
           </r>
         </is>
       </c>
       <c r="L120" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11:09:00</t>
+            <t xml:space="preserve">8:03:00</t>
           </r>
         </is>
       </c>
@@ -10595,19 +10685,19 @@
     </row>
     <row r="121" customHeight="0" bestFit="1" ht="20">
       <c r="A121" s="8" t="n">
-        <v>2.0</v>
+        <v>20.0</v>
       </c>
       <c r="B121" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
-          </r>
-        </is>
-      </c>
-      <c r="C121" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="C121" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
           </r>
         </is>
       </c>
@@ -10628,7 +10718,7 @@
       <c r="F121" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/01</t>
+            <t xml:space="preserve">2022/07/18</t>
           </r>
         </is>
       </c>
@@ -10656,21 +10746,21 @@
       <c r="J121" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:24 AM</t>
+            <t xml:space="preserve">07:01 AM</t>
           </r>
         </is>
       </c>
       <c r="K121" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:47 PM</t>
+            <t xml:space="preserve">3:03 PM</t>
           </r>
         </is>
       </c>
       <c r="L121" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:22:00</t>
+            <t xml:space="preserve">8:01:00</t>
           </r>
         </is>
       </c>
@@ -10686,19 +10776,19 @@
     </row>
     <row r="122" customHeight="0" bestFit="1" ht="20">
       <c r="A122" s="8" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="B122" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
-          </r>
-        </is>
-      </c>
-      <c r="C122" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="C122" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -10719,7 +10809,7 @@
       <c r="F122" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/01</t>
+            <t xml:space="preserve">2022/07/18</t>
           </r>
         </is>
       </c>
@@ -10747,21 +10837,21 @@
       <c r="J122" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:19 AM</t>
+            <t xml:space="preserve">06:39 AM</t>
           </r>
         </is>
       </c>
       <c r="K122" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2:01 PM</t>
+            <t xml:space="preserve">2:59 PM</t>
           </r>
         </is>
       </c>
       <c r="L122" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:42:00</t>
+            <t xml:space="preserve">8:20:00</t>
           </r>
         </is>
       </c>
@@ -10777,19 +10867,19 @@
     </row>
     <row r="123" customHeight="0" bestFit="1" ht="20">
       <c r="A123" s="8" t="n">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="B123" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17</t>
+            <t xml:space="preserve">18</t>
           </r>
         </is>
       </c>
       <c r="C123" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
+            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
           </r>
         </is>
       </c>
@@ -10810,7 +10900,7 @@
       <c r="F123" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/01</t>
+            <t xml:space="preserve">2022/07/16</t>
           </r>
         </is>
       </c>
@@ -10838,49 +10928,37 @@
       <c r="J123" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:02 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K123" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">6:21 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L123" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">8:18:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">3:36 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K123" s="8" t="inlineStr"/>
+      <c r="L123" s="8" t="inlineStr"/>
       <c r="M123" s="8" t="inlineStr"/>
       <c r="N123" s="8" t="inlineStr"/>
       <c r="O123" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="124" customHeight="0" bestFit="1" ht="20">
       <c r="A124" s="8" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="B124" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
-          </r>
-        </is>
-      </c>
-      <c r="C124" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">9</t>
+          </r>
+        </is>
+      </c>
+      <c r="C124" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CATALINA ESCALANTE</t>
           </r>
         </is>
       </c>
@@ -10901,7 +10979,7 @@
       <c r="F124" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/01</t>
+            <t xml:space="preserve">2022/07/16</t>
           </r>
         </is>
       </c>
@@ -10929,7 +11007,7 @@
       <c r="J124" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:02 AM</t>
+            <t xml:space="preserve">09:07 AM</t>
           </r>
         </is>
       </c>
@@ -10947,19 +11025,19 @@
     </row>
     <row r="125" customHeight="0" bestFit="1" ht="20">
       <c r="A125" s="8" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="B125" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">16</t>
           </r>
         </is>
       </c>
       <c r="C125" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -10980,7 +11058,7 @@
       <c r="F125" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/07/01</t>
+            <t xml:space="preserve">2022/07/16</t>
           </r>
         </is>
       </c>
@@ -11008,21 +11086,21 @@
       <c r="J125" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:02 AM</t>
+            <t xml:space="preserve">07:09 AM</t>
           </r>
         </is>
       </c>
       <c r="K125" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:39 PM</t>
+            <t xml:space="preserve">3:29 PM</t>
           </r>
         </is>
       </c>
       <c r="L125" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9:37:00</t>
+            <t xml:space="preserve">8:20:00</t>
           </r>
         </is>
       </c>
@@ -11038,19 +11116,19 @@
     </row>
     <row r="126" customHeight="0" bestFit="1" ht="20">
       <c r="A126" s="8" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="B126" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
-          </r>
-        </is>
-      </c>
-      <c r="C126" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">2</t>
+          </r>
+        </is>
+      </c>
+      <c r="C126" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -11071,7 +11149,7 @@
       <c r="F126" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/30</t>
+            <t xml:space="preserve">2022/07/16</t>
           </r>
         </is>
       </c>
@@ -11099,21 +11177,21 @@
       <c r="J126" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:06 AM</t>
+            <t xml:space="preserve">07:25 AM</t>
           </r>
         </is>
       </c>
       <c r="K126" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11:37 AM</t>
+            <t xml:space="preserve">3:13 PM</t>
           </r>
         </is>
       </c>
       <c r="L126" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:30:00</t>
+            <t xml:space="preserve">7:47:00</t>
           </r>
         </is>
       </c>
@@ -11129,19 +11207,19 @@
     </row>
     <row r="127" customHeight="0" bestFit="1" ht="20">
       <c r="A127" s="8" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="B127" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c r="C127" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">17</t>
+          </r>
+        </is>
+      </c>
+      <c r="C127" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -11162,7 +11240,7 @@
       <c r="F127" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/30</t>
+            <t xml:space="preserve">2022/07/16</t>
           </r>
         </is>
       </c>
@@ -11190,49 +11268,37 @@
       <c r="J127" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:02 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K127" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">3:06 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L127" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">6:03:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">07:09 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K127" s="8" t="inlineStr"/>
+      <c r="L127" s="8" t="inlineStr"/>
       <c r="M127" s="8" t="inlineStr"/>
       <c r="N127" s="8" t="inlineStr"/>
       <c r="O127" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="128" customHeight="0" bestFit="1" ht="20">
       <c r="A128" s="8" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="B128" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">12</t>
+            <t xml:space="preserve">5</t>
           </r>
         </is>
       </c>
       <c r="C128" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
+            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
           </r>
         </is>
       </c>
@@ -11253,7 +11319,7 @@
       <c r="F128" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/30</t>
+            <t xml:space="preserve">2022/07/16</t>
           </r>
         </is>
       </c>
@@ -11281,30 +11347,18 @@
       <c r="J128" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:38 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K128" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">3:03 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L128" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">8:24:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">3:15 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K128" s="8" t="inlineStr"/>
+      <c r="L128" s="8" t="inlineStr"/>
       <c r="M128" s="8" t="inlineStr"/>
       <c r="N128" s="8" t="inlineStr"/>
       <c r="O128" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
@@ -11344,7 +11398,7 @@
       <c r="F129" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/30</t>
+            <t xml:space="preserve">2022/07/16</t>
           </r>
         </is>
       </c>
@@ -11372,21 +11426,21 @@
       <c r="J129" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:59 AM</t>
+            <t xml:space="preserve">07:01 AM</t>
           </r>
         </is>
       </c>
       <c r="K129" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:08 PM</t>
+            <t xml:space="preserve">3:04 PM</t>
           </r>
         </is>
       </c>
       <c r="L129" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:09:00</t>
+            <t xml:space="preserve">8:03:00</t>
           </r>
         </is>
       </c>
@@ -11402,19 +11456,19 @@
     </row>
     <row r="130" customHeight="0" bestFit="1" ht="20">
       <c r="A130" s="8" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="B130" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
-          </r>
-        </is>
-      </c>
-      <c r="C130" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="C130" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -11435,7 +11489,7 @@
       <c r="F130" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/30</t>
+            <t xml:space="preserve">2022/07/16</t>
           </r>
         </is>
       </c>
@@ -11463,37 +11517,49 @@
       <c r="J130" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:25 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K130" s="8" t="inlineStr"/>
-      <c r="L130" s="8" t="inlineStr"/>
+            <t xml:space="preserve">06:36 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K130" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2:51 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L130" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:15:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M130" s="8" t="inlineStr"/>
       <c r="N130" s="8" t="inlineStr"/>
       <c r="O130" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="131" customHeight="0" bestFit="1" ht="20">
       <c r="A131" s="8" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="B131" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2</t>
+            <t xml:space="preserve">16</t>
           </r>
         </is>
       </c>
       <c r="C131" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -11514,7 +11580,7 @@
       <c r="F131" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/30</t>
+            <t xml:space="preserve">2022/07/15</t>
           </r>
         </is>
       </c>
@@ -11542,37 +11608,49 @@
       <c r="J131" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:06 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K131" s="8" t="inlineStr"/>
-      <c r="L131" s="8" t="inlineStr"/>
+            <t xml:space="preserve">09:08 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K131" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">6:23 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L131" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">9:15:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M131" s="8" t="inlineStr"/>
       <c r="N131" s="8" t="inlineStr"/>
       <c r="O131" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="132" customHeight="0" bestFit="1" ht="20">
       <c r="A132" s="8" t="n">
-        <v>5.0</v>
+        <v>17.0</v>
       </c>
       <c r="B132" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">5</t>
-          </r>
-        </is>
-      </c>
-      <c r="C132" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
+            <t xml:space="preserve">17</t>
+          </r>
+        </is>
+      </c>
+      <c r="C132" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -11593,7 +11671,7 @@
       <c r="F132" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/30</t>
+            <t xml:space="preserve">2022/07/15</t>
           </r>
         </is>
       </c>
@@ -11621,21 +11699,21 @@
       <c r="J132" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:12 AM</t>
+            <t xml:space="preserve">10:09 AM</t>
           </r>
         </is>
       </c>
       <c r="K132" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">1:34 PM</t>
+            <t xml:space="preserve">6:23 PM</t>
           </r>
         </is>
       </c>
       <c r="L132" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:21:00</t>
+            <t xml:space="preserve">8:13:00</t>
           </r>
         </is>
       </c>
@@ -11651,19 +11729,19 @@
     </row>
     <row r="133" customHeight="0" bestFit="1" ht="20">
       <c r="A133" s="8" t="n">
-        <v>16.0</v>
+        <v>9.0</v>
       </c>
       <c r="B133" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
-          </r>
-        </is>
-      </c>
-      <c r="C133" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">9</t>
+          </r>
+        </is>
+      </c>
+      <c r="C133" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CATALINA ESCALANTE</t>
           </r>
         </is>
       </c>
@@ -11684,7 +11762,7 @@
       <c r="F133" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/30</t>
+            <t xml:space="preserve">2022/07/15</t>
           </r>
         </is>
       </c>
@@ -11712,21 +11790,21 @@
       <c r="J133" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:00 AM</t>
+            <t xml:space="preserve">09:01 AM</t>
           </r>
         </is>
       </c>
       <c r="K133" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:12 PM</t>
+            <t xml:space="preserve">3:19 PM</t>
           </r>
         </is>
       </c>
       <c r="L133" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:11:00</t>
+            <t xml:space="preserve">6:17:00</t>
           </r>
         </is>
       </c>
@@ -11742,19 +11820,19 @@
     </row>
     <row r="134" customHeight="0" bestFit="1" ht="20">
       <c r="A134" s="8" t="n">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="B134" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18</t>
+            <t xml:space="preserve">8</t>
           </r>
         </is>
       </c>
       <c r="C134" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
+            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
           </r>
         </is>
       </c>
@@ -11775,7 +11853,7 @@
       <c r="F134" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/30</t>
+            <t xml:space="preserve">2022/07/15</t>
           </r>
         </is>
       </c>
@@ -11803,49 +11881,37 @@
       <c r="J134" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:41 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K134" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">6:35 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L134" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">8:54:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">4:52 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K134" s="8" t="inlineStr"/>
+      <c r="L134" s="8" t="inlineStr"/>
       <c r="M134" s="8" t="inlineStr"/>
       <c r="N134" s="8" t="inlineStr"/>
       <c r="O134" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="135" customHeight="0" bestFit="1" ht="20">
       <c r="A135" s="8" t="n">
-        <v>17.0</v>
+        <v>13.0</v>
       </c>
       <c r="B135" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17</t>
-          </r>
-        </is>
-      </c>
-      <c r="C135" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="C135" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
           </r>
         </is>
       </c>
@@ -11866,7 +11932,7 @@
       <c r="F135" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/30</t>
+            <t xml:space="preserve">2022/07/15</t>
           </r>
         </is>
       </c>
@@ -11894,21 +11960,21 @@
       <c r="J135" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:00 AM</t>
+            <t xml:space="preserve">08:06 AM</t>
           </r>
         </is>
       </c>
       <c r="K135" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:12 PM</t>
+            <t xml:space="preserve">5:04 PM</t>
           </r>
         </is>
       </c>
       <c r="L135" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:11:00</t>
+            <t xml:space="preserve">8:58:00</t>
           </r>
         </is>
       </c>
@@ -11924,19 +11990,19 @@
     </row>
     <row r="136" customHeight="0" bestFit="1" ht="20">
       <c r="A136" s="8" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="B136" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
       <c r="C136" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -11957,7 +12023,7 @@
       <c r="F136" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/30</t>
+            <t xml:space="preserve">2022/07/15</t>
           </r>
         </is>
       </c>
@@ -11985,21 +12051,21 @@
       <c r="J136" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:08 AM</t>
+            <t xml:space="preserve">07:26 AM</t>
           </r>
         </is>
       </c>
       <c r="K136" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:11 PM</t>
+            <t xml:space="preserve">4:05 PM</t>
           </r>
         </is>
       </c>
       <c r="L136" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">11:03:00</t>
+            <t xml:space="preserve">8:39:00</t>
           </r>
         </is>
       </c>
@@ -12015,19 +12081,19 @@
     </row>
     <row r="137" customHeight="0" bestFit="1" ht="20">
       <c r="A137" s="8" t="n">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="B137" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8</t>
-          </r>
-        </is>
-      </c>
-      <c r="C137" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+            <t xml:space="preserve">5</t>
+          </r>
+        </is>
+      </c>
+      <c r="C137" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MIRIAM ROA ALMANZA</t>
           </r>
         </is>
       </c>
@@ -12048,7 +12114,7 @@
       <c r="F137" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/29</t>
+            <t xml:space="preserve">2022/07/15</t>
           </r>
         </is>
       </c>
@@ -12076,7 +12142,7 @@
       <c r="J137" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">4:42 PM</t>
+            <t xml:space="preserve">3:29 PM</t>
           </r>
         </is>
       </c>
@@ -12094,19 +12160,19 @@
     </row>
     <row r="138" customHeight="0" bestFit="1" ht="20">
       <c r="A138" s="8" t="n">
-        <v>13.0</v>
+        <v>20.0</v>
       </c>
       <c r="B138" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">13</t>
-          </r>
-        </is>
-      </c>
-      <c r="C138" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="C138" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
           </r>
         </is>
       </c>
@@ -12127,7 +12193,7 @@
       <c r="F138" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/29</t>
+            <t xml:space="preserve">2022/07/15</t>
           </r>
         </is>
       </c>
@@ -12155,21 +12221,21 @@
       <c r="J138" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">08:14 AM</t>
+            <t xml:space="preserve">07:02 AM</t>
           </r>
         </is>
       </c>
       <c r="K138" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:40 PM</t>
+            <t xml:space="preserve">3:14 PM</t>
           </r>
         </is>
       </c>
       <c r="L138" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7:26:00</t>
+            <t xml:space="preserve">8:11:00</t>
           </r>
         </is>
       </c>
@@ -12218,7 +12284,7 @@
       <c r="F139" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/29</t>
+            <t xml:space="preserve">2022/07/15</t>
           </r>
         </is>
       </c>
@@ -12246,37 +12312,49 @@
       <c r="J139" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">06:40 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K139" s="8" t="inlineStr"/>
-      <c r="L139" s="8" t="inlineStr"/>
+            <t xml:space="preserve">06:44 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K139" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2:55 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L139" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:11:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M139" s="8" t="inlineStr"/>
       <c r="N139" s="8" t="inlineStr"/>
       <c r="O139" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="140" customHeight="0" bestFit="1" ht="20">
       <c r="A140" s="8" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="B140" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">9</t>
-          </r>
-        </is>
-      </c>
-      <c r="C140" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">CATALINA ESCALANTE</t>
+            <t xml:space="preserve">17</t>
+          </r>
+        </is>
+      </c>
+      <c r="C140" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
           </r>
         </is>
       </c>
@@ -12297,7 +12375,7 @@
       <c r="F140" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/29</t>
+            <t xml:space="preserve">2022/07/14</t>
           </r>
         </is>
       </c>
@@ -12325,49 +12403,37 @@
       <c r="J140" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:08 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K140" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">3:03 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L140" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">5:55:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">10:04 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K140" s="8" t="inlineStr"/>
+      <c r="L140" s="8" t="inlineStr"/>
       <c r="M140" s="8" t="inlineStr"/>
       <c r="N140" s="8" t="inlineStr"/>
       <c r="O140" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="141" customHeight="0" bestFit="1" ht="20">
       <c r="A141" s="8" t="n">
-        <v>16.0</v>
+        <v>13.0</v>
       </c>
       <c r="B141" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">16</t>
-          </r>
-        </is>
-      </c>
-      <c r="C141" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
+            <t xml:space="preserve">13</t>
+          </r>
+        </is>
+      </c>
+      <c r="C141" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">SOFIA GONZALEZ BENITEZ</t>
           </r>
         </is>
       </c>
@@ -12388,7 +12454,7 @@
       <c r="F141" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/29</t>
+            <t xml:space="preserve">2022/07/14</t>
           </r>
         </is>
       </c>
@@ -12416,49 +12482,37 @@
       <c r="J141" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:03 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K141" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">6:28 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L141" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">8:24:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">08:05 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K141" s="8" t="inlineStr"/>
+      <c r="L141" s="8" t="inlineStr"/>
       <c r="M141" s="8" t="inlineStr"/>
       <c r="N141" s="8" t="inlineStr"/>
       <c r="O141" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros completos</t>
+            <t xml:space="preserve">Registros incompletos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="142" customHeight="0" bestFit="1" ht="20">
       <c r="A142" s="8" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="B142" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">20</t>
-          </r>
-        </is>
-      </c>
-      <c r="C142" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+            <t xml:space="preserve">16</t>
+          </r>
+        </is>
+      </c>
+      <c r="C142" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">DULCE ARIANA BAUTISTA AGUILAR</t>
           </r>
         </is>
       </c>
@@ -12479,7 +12533,7 @@
       <c r="F142" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/29</t>
+            <t xml:space="preserve">2022/07/14</t>
           </r>
         </is>
       </c>
@@ -12507,21 +12561,21 @@
       <c r="J142" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:02 AM</t>
+            <t xml:space="preserve">10:04 AM</t>
           </r>
         </is>
       </c>
       <c r="K142" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:03 PM</t>
+            <t xml:space="preserve">6:16 PM</t>
           </r>
         </is>
       </c>
       <c r="L142" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:01:00</t>
+            <t xml:space="preserve">8:11:00</t>
           </r>
         </is>
       </c>
@@ -12537,19 +12591,19 @@
     </row>
     <row r="143" customHeight="0" bestFit="1" ht="20">
       <c r="A143" s="8" t="n">
-        <v>18.0</v>
+        <v>2.0</v>
       </c>
       <c r="B143" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">18</t>
+            <t xml:space="preserve">2</t>
           </r>
         </is>
       </c>
       <c r="C143" s="10" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">GABRIELA  VILLANUEVA VAZQUEZ</t>
+            <t xml:space="preserve">MARIA CONCEPCION PADILLA VELOZ</t>
           </r>
         </is>
       </c>
@@ -12570,7 +12624,7 @@
       <c r="F143" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/29</t>
+            <t xml:space="preserve">2022/07/14</t>
           </r>
         </is>
       </c>
@@ -12598,21 +12652,21 @@
       <c r="J143" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">09:53 AM</t>
+            <t xml:space="preserve">07:20 AM</t>
           </r>
         </is>
       </c>
       <c r="K143" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:50 PM</t>
+            <t xml:space="preserve">3:27 PM</t>
           </r>
         </is>
       </c>
       <c r="L143" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:56:00</t>
+            <t xml:space="preserve">8:07:00</t>
           </r>
         </is>
       </c>
@@ -12661,7 +12715,7 @@
       <c r="F144" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/29</t>
+            <t xml:space="preserve">2022/07/14</t>
           </r>
         </is>
       </c>
@@ -12689,37 +12743,49 @@
       <c r="J144" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">3:08 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K144" s="8" t="inlineStr"/>
-      <c r="L144" s="8" t="inlineStr"/>
+            <t xml:space="preserve">07:11 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K144" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">6:01 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L144" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">10:50:00</t>
+          </r>
+        </is>
+      </c>
       <c r="M144" s="8" t="inlineStr"/>
       <c r="N144" s="8" t="inlineStr"/>
       <c r="O144" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Registros incompletos</t>
+            <t xml:space="preserve">Registros completos</t>
           </r>
         </is>
       </c>
     </row>
     <row r="145" customHeight="0" bestFit="1" ht="20">
       <c r="A145" s="8" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="B145" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">17</t>
-          </r>
-        </is>
-      </c>
-      <c r="C145" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">EDUARDO BERTIN RODRIGUEZ ARELLANO</t>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="C145" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ROSA AYALA ESTRADA</t>
           </r>
         </is>
       </c>
@@ -12740,7 +12806,7 @@
       <c r="F145" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/29</t>
+            <t xml:space="preserve">2022/07/14</t>
           </r>
         </is>
       </c>
@@ -12768,21 +12834,21 @@
       <c r="J145" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">10:03 AM</t>
+            <t xml:space="preserve">06:39 AM</t>
           </r>
         </is>
       </c>
       <c r="K145" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">6:27 PM</t>
+            <t xml:space="preserve">3:00 PM</t>
           </r>
         </is>
       </c>
       <c r="L145" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">8:24:00</t>
+            <t xml:space="preserve">8:20:00</t>
           </r>
         </is>
       </c>
@@ -12798,19 +12864,19 @@
     </row>
     <row r="146" customHeight="0" bestFit="1" ht="20">
       <c r="A146" s="8" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B146" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">7</t>
-          </r>
-        </is>
-      </c>
-      <c r="C146" s="10" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">ERIKA UGANDA ALCANTARA CARREON</t>
+            <t xml:space="preserve">9</t>
+          </r>
+        </is>
+      </c>
+      <c r="C146" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">CATALINA ESCALANTE</t>
           </r>
         </is>
       </c>
@@ -12831,7 +12897,7 @@
       <c r="F146" s="9" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2022/06/29</t>
+            <t xml:space="preserve">2022/07/14</t>
           </r>
         </is>
       </c>
@@ -12859,27 +12925,185 @@
       <c r="J146" s="8" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">07:15 AM</t>
-          </r>
-        </is>
-      </c>
-      <c r="K146" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">5:42 PM</t>
-          </r>
-        </is>
-      </c>
-      <c r="L146" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">10:26:00</t>
-          </r>
-        </is>
-      </c>
+            <t xml:space="preserve">09:06 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K146" s="8" t="inlineStr"/>
+      <c r="L146" s="8" t="inlineStr"/>
       <c r="M146" s="8" t="inlineStr"/>
       <c r="N146" s="8" t="inlineStr"/>
       <c r="O146" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Registros incompletos</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="147" customHeight="0" bestFit="1" ht="20">
+      <c r="A147" s="8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B147" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8</t>
+          </r>
+        </is>
+      </c>
+      <c r="C147" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIA ALEJANDRA CRUZ GOMEZ</t>
+          </r>
+        </is>
+      </c>
+      <c r="D147" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Activo</t>
+          </r>
+        </is>
+      </c>
+      <c r="E147" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIANO ESCOBEDO</t>
+          </r>
+        </is>
+      </c>
+      <c r="F147" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2022/07/14</t>
+          </r>
+        </is>
+      </c>
+      <c r="G147" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Turno de trabajo default</t>
+          </r>
+        </is>
+      </c>
+      <c r="H147" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1:00 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="I147" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">11:00 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="J147" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3:27 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K147" s="8" t="inlineStr"/>
+      <c r="L147" s="8" t="inlineStr"/>
+      <c r="M147" s="8" t="inlineStr"/>
+      <c r="N147" s="8" t="inlineStr"/>
+      <c r="O147" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Registros incompletos</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="148" customHeight="0" bestFit="1" ht="20">
+      <c r="A148" s="8" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B148" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">20</t>
+          </r>
+        </is>
+      </c>
+      <c r="C148" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">ITZEL ESTRADA CARRASCO</t>
+          </r>
+        </is>
+      </c>
+      <c r="D148" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Activo</t>
+          </r>
+        </is>
+      </c>
+      <c r="E148" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">MARIANO ESCOBEDO</t>
+          </r>
+        </is>
+      </c>
+      <c r="F148" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">2022/07/14</t>
+          </r>
+        </is>
+      </c>
+      <c r="G148" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Turno de trabajo default</t>
+          </r>
+        </is>
+      </c>
+      <c r="H148" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">1:00 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="I148" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">11:00 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="J148" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">06:59 AM</t>
+          </r>
+        </is>
+      </c>
+      <c r="K148" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">3:03 PM</t>
+          </r>
+        </is>
+      </c>
+      <c r="L148" s="8" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">8:03:00</t>
+          </r>
+        </is>
+      </c>
+      <c r="M148" s="8" t="inlineStr"/>
+      <c r="N148" s="8" t="inlineStr"/>
+      <c r="O148" s="8" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">Registros completos</t>
